--- a/Data/YMAX ETF Price & Dividends.xlsx
+++ b/Data/YMAX ETF Price & Dividends.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="YMAX ETF Price &amp; Dividends" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="270">
   <si>
     <t>Date</t>
   </si>
@@ -796,6 +797,39 @@
   </si>
   <si>
     <t>254.88K</t>
+  </si>
+  <si>
+    <t>1.35M</t>
+  </si>
+  <si>
+    <t>1.02M</t>
+  </si>
+  <si>
+    <t>2.45M</t>
+  </si>
+  <si>
+    <t>1.23M</t>
+  </si>
+  <si>
+    <t>1.66M</t>
+  </si>
+  <si>
+    <t>1.17M</t>
+  </si>
+  <si>
+    <t>1.59M</t>
+  </si>
+  <si>
+    <t>1.75M</t>
+  </si>
+  <si>
+    <t>2.03M</t>
+  </si>
+  <si>
+    <t>1.55M</t>
+  </si>
+  <si>
+    <t>1.26M</t>
   </si>
 </sst>
 </file>
@@ -1279,10 +1313,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1607,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G285"/>
+  <dimension ref="A1:G300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1643,6305 +1680,6598 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>45685</v>
+        <v>45701</v>
       </c>
       <c r="B2">
-        <v>16.72</v>
-      </c>
-      <c r="C2">
-        <v>16.57</v>
-      </c>
-      <c r="D2">
-        <v>16.73</v>
-      </c>
-      <c r="E2">
-        <v>16.329999999999998</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1.95E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45684</v>
+        <v>45701</v>
       </c>
       <c r="B3">
-        <v>16.399999999999999</v>
+        <v>16.64</v>
       </c>
       <c r="C3">
-        <v>16.440000000000001</v>
+        <v>16.47</v>
       </c>
       <c r="D3">
-        <v>16.62</v>
+        <v>16.64</v>
       </c>
       <c r="E3">
-        <v>16.23</v>
+        <v>16.38</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>269</v>
       </c>
       <c r="G3" s="2">
-        <v>-2.9000000000000001E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>45681</v>
+        <v>45700</v>
       </c>
       <c r="B4">
-        <v>16.89</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>16.39</v>
       </c>
       <c r="D4">
-        <v>17.079999999999998</v>
+        <v>16.62</v>
       </c>
       <c r="E4">
-        <v>16.86</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>268</v>
       </c>
       <c r="G4" s="2">
-        <v>-4.1000000000000003E-3</v>
+        <v>1.1599999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>45680</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.17</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+        <v>45699</v>
+      </c>
+      <c r="B5">
+        <v>16.41</v>
+      </c>
+      <c r="C5">
+        <v>16.57</v>
+      </c>
+      <c r="D5">
+        <v>16.63</v>
+      </c>
+      <c r="E5">
+        <v>16.39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1.5599999999999999E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>45680</v>
+        <v>45698</v>
       </c>
       <c r="B6">
-        <v>16.96</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="C6">
-        <v>16.8</v>
+        <v>16.53</v>
       </c>
       <c r="D6">
-        <v>16.97</v>
+        <v>16.68</v>
       </c>
       <c r="E6">
-        <v>16.77</v>
+        <v>16.53</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>266</v>
       </c>
       <c r="G6" s="2">
-        <v>-4.1000000000000003E-3</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>45679</v>
+        <v>45695</v>
       </c>
       <c r="B7">
-        <v>17.03</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="C7">
-        <v>17.04</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="D7">
-        <v>17.09</v>
+        <v>16.690000000000001</v>
       </c>
       <c r="E7">
-        <v>16.97</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>265</v>
       </c>
       <c r="G7" s="2">
-        <v>8.8999999999999999E-3</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>45678</v>
+        <v>45694</v>
       </c>
       <c r="B8">
-        <v>16.88</v>
-      </c>
-      <c r="C8">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="D8">
-        <v>17.079999999999998</v>
-      </c>
-      <c r="E8">
-        <v>16.72</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="2">
-        <v>6.6E-3</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>45674</v>
+        <v>45694</v>
       </c>
       <c r="B9">
-        <v>16.77</v>
+        <v>16.48</v>
       </c>
       <c r="C9">
-        <v>16.68</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="D9">
-        <v>16.8</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="E9">
-        <v>16.64</v>
+        <v>16.36</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>264</v>
       </c>
       <c r="G9" s="2">
-        <v>1.5699999999999999E-2</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>45673</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.11</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+        <v>45693</v>
+      </c>
+      <c r="B10">
+        <v>16.57</v>
+      </c>
+      <c r="C10">
+        <v>16.68</v>
+      </c>
+      <c r="D10">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="E10">
+        <v>16.54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="2">
+        <v>-6.6E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>45673</v>
+        <v>45692</v>
       </c>
       <c r="B11">
-        <v>16.510000000000002</v>
+        <v>16.68</v>
       </c>
       <c r="C11">
-        <v>16.57</v>
+        <v>16.579999999999998</v>
       </c>
       <c r="D11">
-        <v>16.64</v>
+        <v>16.73</v>
       </c>
       <c r="E11">
-        <v>16.5</v>
+        <v>16.559999999999999</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="G11" s="2">
-        <v>-9.5999999999999992E-3</v>
+        <v>1.52E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>45672</v>
+        <v>45691</v>
       </c>
       <c r="B12">
-        <v>16.670000000000002</v>
+        <v>16.43</v>
       </c>
       <c r="C12">
-        <v>16.64</v>
+        <v>16.170000000000002</v>
       </c>
       <c r="D12">
-        <v>16.739999999999998</v>
+        <v>16.53</v>
       </c>
       <c r="E12">
-        <v>16.52</v>
+        <v>16.16</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>261</v>
       </c>
       <c r="G12" s="2">
-        <v>2.2100000000000002E-2</v>
+        <v>-1.0200000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>45671</v>
+        <v>45688</v>
       </c>
       <c r="B13">
-        <v>16.309999999999999</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="C13">
-        <v>16.45</v>
+        <v>16.79</v>
       </c>
       <c r="D13">
-        <v>16.5</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E13">
-        <v>16.22</v>
+        <v>16.55</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G13" s="2">
-        <v>3.7000000000000002E-3</v>
+        <v>-6.6E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>45670</v>
+        <v>45687</v>
       </c>
       <c r="B14">
-        <v>16.25</v>
-      </c>
-      <c r="C14">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D14">
-        <v>16.260000000000002</v>
-      </c>
-      <c r="E14">
-        <v>15.99</v>
-      </c>
-      <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="2">
-        <v>-1.6299999999999999E-2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>45667</v>
+        <v>45687</v>
       </c>
       <c r="B15">
-        <v>16.52</v>
+        <v>16.71</v>
       </c>
       <c r="C15">
-        <v>16.649999999999999</v>
+        <v>16.63</v>
       </c>
       <c r="D15">
-        <v>16.670000000000002</v>
+        <v>16.8</v>
       </c>
       <c r="E15">
-        <v>16.329999999999998</v>
+        <v>16.61</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="G15" s="2">
-        <v>-1.26E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>45665</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+        <v>45686</v>
+      </c>
+      <c r="B16">
+        <v>16.7</v>
+      </c>
+      <c r="C16">
+        <v>16.79</v>
+      </c>
+      <c r="D16">
+        <v>16.8</v>
+      </c>
+      <c r="E16">
+        <v>16.55</v>
+      </c>
+      <c r="F16" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="2">
+        <v>-1.8E-3</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>45665</v>
+        <v>45685</v>
       </c>
       <c r="B17">
+        <v>16.72</v>
+      </c>
+      <c r="C17">
+        <v>16.57</v>
+      </c>
+      <c r="D17">
         <v>16.73</v>
       </c>
-      <c r="C17">
-        <v>16.96</v>
-      </c>
-      <c r="D17">
-        <v>16.96</v>
-      </c>
       <c r="E17">
-        <v>16.53</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G17" s="2">
-        <v>-2.2200000000000001E-2</v>
+        <v>1.95E-2</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>45664</v>
+        <v>45684</v>
       </c>
       <c r="B18">
-        <v>17.11</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C18">
-        <v>17.510000000000002</v>
+        <v>16.440000000000001</v>
       </c>
       <c r="D18">
-        <v>17.53</v>
+        <v>16.62</v>
       </c>
       <c r="E18">
-        <v>17.010000000000002</v>
+        <v>16.23</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2">
-        <v>-2.06E-2</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>45663</v>
+        <v>45681</v>
       </c>
       <c r="B19">
-        <v>17.47</v>
+        <v>16.89</v>
       </c>
       <c r="C19">
-        <v>17.46</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>17.52</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="E19">
-        <v>17.38</v>
+        <v>16.86</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="G19" s="2">
-        <v>1.2800000000000001E-2</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>45660</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+        <v>45680</v>
+      </c>
+      <c r="B20" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>45660</v>
+        <v>45680</v>
       </c>
       <c r="B21">
-        <v>17.25</v>
+        <v>16.96</v>
       </c>
       <c r="C21">
+        <v>16.8</v>
+      </c>
+      <c r="D21">
         <v>16.97</v>
       </c>
-      <c r="D21">
-        <v>17.25</v>
-      </c>
       <c r="E21">
-        <v>16.93</v>
+        <v>16.77</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G21" s="2">
-        <v>1.23E-2</v>
+        <v>-4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>45659</v>
+        <v>45679</v>
       </c>
       <c r="B22">
+        <v>17.03</v>
+      </c>
+      <c r="C22">
         <v>17.04</v>
       </c>
-      <c r="C22">
-        <v>17.12</v>
-      </c>
       <c r="D22">
-        <v>17.18</v>
+        <v>17.09</v>
       </c>
       <c r="E22">
-        <v>16.88</v>
+        <v>16.97</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2">
-        <v>5.3E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>45657</v>
+        <v>45678</v>
       </c>
       <c r="B23">
-        <v>16.95</v>
+        <v>16.88</v>
       </c>
       <c r="C23">
-        <v>17.190000000000001</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="D23">
-        <v>17.190000000000001</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="E23">
-        <v>16.88</v>
+        <v>16.72</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G23" s="2">
-        <v>-7.6E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>45656</v>
+        <v>45674</v>
       </c>
       <c r="B24">
-        <v>17.079999999999998</v>
+        <v>16.77</v>
       </c>
       <c r="C24">
-        <v>17.18</v>
+        <v>16.68</v>
       </c>
       <c r="D24">
-        <v>17.18</v>
+        <v>16.8</v>
       </c>
       <c r="E24">
-        <v>16.88</v>
+        <v>16.64</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G24" s="2">
-        <v>-1.2699999999999999E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>45653</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+        <v>45673</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>45653</v>
+        <v>45673</v>
       </c>
       <c r="B26">
-        <v>17.3</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="C26">
-        <v>17.53</v>
+        <v>16.57</v>
       </c>
       <c r="D26">
-        <v>17.54</v>
+        <v>16.64</v>
       </c>
       <c r="E26">
-        <v>17.149999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="G26" s="2">
-        <v>-2.75E-2</v>
+        <v>-9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>45652</v>
+        <v>45672</v>
       </c>
       <c r="B27">
-        <v>17.79</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="C27">
-        <v>17.88</v>
+        <v>16.64</v>
       </c>
       <c r="D27">
-        <v>17.88</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="E27">
-        <v>17.7</v>
+        <v>16.52</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2">
-        <v>-3.3999999999999998E-3</v>
+        <v>2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>45650</v>
+        <v>45671</v>
       </c>
       <c r="B28">
-        <v>17.850000000000001</v>
+        <v>16.309999999999999</v>
       </c>
       <c r="C28">
-        <v>17.68</v>
+        <v>16.45</v>
       </c>
       <c r="D28">
-        <v>17.850000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="E28">
-        <v>17.61</v>
+        <v>16.22</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2">
-        <v>1.77E-2</v>
+        <v>3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>45649</v>
+        <v>45670</v>
       </c>
       <c r="B29">
-        <v>17.54</v>
+        <v>16.25</v>
       </c>
       <c r="C29">
-        <v>17.600000000000001</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="D29">
-        <v>17.600000000000001</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="E29">
-        <v>17.34</v>
+        <v>15.99</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G29" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>-1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>45646</v>
+        <v>45667</v>
       </c>
       <c r="B30">
-        <v>17.53</v>
+        <v>16.52</v>
       </c>
       <c r="C30">
-        <v>17.100000000000001</v>
+        <v>16.649999999999999</v>
       </c>
       <c r="D30">
-        <v>17.63</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="E30">
-        <v>17.05</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G30" s="2">
-        <v>1.3899999999999999E-2</v>
+        <v>-1.26E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>45645</v>
-      </c>
-      <c r="B31" s="3">
+        <v>45665</v>
+      </c>
+      <c r="B31" s="4">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>45645</v>
+        <v>45665</v>
       </c>
       <c r="B32">
-        <v>17.29</v>
+        <v>16.73</v>
       </c>
       <c r="C32">
-        <v>17.61</v>
+        <v>16.96</v>
       </c>
       <c r="D32">
-        <v>17.68</v>
+        <v>16.96</v>
       </c>
       <c r="E32">
-        <v>17.25</v>
+        <v>16.53</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G32" s="2">
-        <v>-1.2E-2</v>
+        <v>-2.2200000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>45644</v>
+        <v>45664</v>
       </c>
       <c r="B33">
-        <v>17.5</v>
+        <v>17.11</v>
       </c>
       <c r="C33">
-        <v>18.3</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="D33">
-        <v>18.309999999999999</v>
+        <v>17.53</v>
       </c>
       <c r="E33">
-        <v>17.39</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G33" s="2">
-        <v>-4.1599999999999998E-2</v>
+        <v>-2.06E-2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>45643</v>
+        <v>45663</v>
       </c>
       <c r="B34">
-        <v>18.260000000000002</v>
+        <v>17.47</v>
       </c>
       <c r="C34">
-        <v>18.32</v>
+        <v>17.46</v>
       </c>
       <c r="D34">
-        <v>18.329999999999998</v>
+        <v>17.52</v>
       </c>
       <c r="E34">
-        <v>18.16</v>
+        <v>17.38</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G34" s="2">
-        <v>-2.2000000000000001E-3</v>
+        <v>1.2800000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>45642</v>
-      </c>
-      <c r="B35">
-        <v>18.3</v>
-      </c>
-      <c r="C35">
-        <v>18.190000000000001</v>
-      </c>
-      <c r="D35">
-        <v>18.3</v>
-      </c>
-      <c r="E35">
-        <v>18.170000000000002</v>
-      </c>
-      <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="2">
-        <v>6.6E-3</v>
-      </c>
+        <v>45660</v>
+      </c>
+      <c r="B35" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>45639</v>
+        <v>45660</v>
       </c>
       <c r="B36">
-        <v>18.18</v>
+        <v>17.25</v>
       </c>
       <c r="C36">
-        <v>18.3</v>
+        <v>16.97</v>
       </c>
       <c r="D36">
-        <v>18.32</v>
+        <v>17.25</v>
       </c>
       <c r="E36">
-        <v>18.010000000000002</v>
+        <v>16.93</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2">
-        <v>-3.8E-3</v>
+        <v>1.23E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>45638</v>
-      </c>
-      <c r="B37" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+        <v>45659</v>
+      </c>
+      <c r="B37">
+        <v>17.04</v>
+      </c>
+      <c r="C37">
+        <v>17.12</v>
+      </c>
+      <c r="D37">
+        <v>17.18</v>
+      </c>
+      <c r="E37">
+        <v>16.88</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5.3E-3</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>45638</v>
+        <v>45657</v>
       </c>
       <c r="B38">
-        <v>18.25</v>
+        <v>16.95</v>
       </c>
       <c r="C38">
-        <v>18.309999999999999</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="D38">
-        <v>18.37</v>
+        <v>17.190000000000001</v>
       </c>
       <c r="E38">
-        <v>18.18</v>
+        <v>16.88</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2">
-        <v>-1.14E-2</v>
+        <v>-7.6E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>45637</v>
+        <v>45656</v>
       </c>
       <c r="B39">
-        <v>18.46</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="C39">
-        <v>18.36</v>
+        <v>17.18</v>
       </c>
       <c r="D39">
-        <v>18.489999999999998</v>
+        <v>17.18</v>
       </c>
       <c r="E39">
-        <v>18.23</v>
+        <v>16.88</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="G39" s="2">
-        <v>1.0999999999999999E-2</v>
+        <v>-1.2699999999999999E-2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>45636</v>
-      </c>
-      <c r="B40">
-        <v>18.260000000000002</v>
-      </c>
-      <c r="C40">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="D40">
-        <v>18.54</v>
-      </c>
-      <c r="E40">
-        <v>18.239999999999998</v>
-      </c>
-      <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="2">
-        <v>-1.2999999999999999E-2</v>
-      </c>
+        <v>45653</v>
+      </c>
+      <c r="B40" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>45635</v>
+        <v>45653</v>
       </c>
       <c r="B41">
-        <v>18.5</v>
+        <v>17.3</v>
       </c>
       <c r="C41">
-        <v>18.82</v>
+        <v>17.53</v>
       </c>
       <c r="D41">
-        <v>18.82</v>
+        <v>17.54</v>
       </c>
       <c r="E41">
-        <v>18.46</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="F41" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="G41" s="2">
-        <v>-8.0000000000000002E-3</v>
+        <v>-2.75E-2</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45632</v>
+        <v>45652</v>
       </c>
       <c r="B42">
-        <v>18.649999999999999</v>
+        <v>17.79</v>
       </c>
       <c r="C42">
-        <v>18.510000000000002</v>
+        <v>17.88</v>
       </c>
       <c r="D42">
-        <v>18.649999999999999</v>
+        <v>17.88</v>
       </c>
       <c r="E42">
-        <v>18.46</v>
+        <v>17.7</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G42" s="2">
-        <v>1.3599999999999999E-2</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>45631</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
+        <v>45650</v>
+      </c>
+      <c r="B43">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="C43">
+        <v>17.68</v>
+      </c>
+      <c r="D43">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="E43">
+        <v>17.61</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1.77E-2</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>45631</v>
+        <v>45649</v>
       </c>
       <c r="B44">
-        <v>18.399999999999999</v>
+        <v>17.54</v>
       </c>
       <c r="C44">
-        <v>18.559999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D44">
-        <v>18.57</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E44">
-        <v>18.350000000000001</v>
+        <v>17.34</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="G44" s="2">
-        <v>-1.34E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>45630</v>
+        <v>45646</v>
       </c>
       <c r="B45">
-        <v>18.649999999999999</v>
+        <v>17.53</v>
       </c>
       <c r="C45">
-        <v>18.579999999999998</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D45">
-        <v>18.66</v>
+        <v>17.63</v>
       </c>
       <c r="E45">
-        <v>18.48</v>
+        <v>17.05</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G45" s="2">
-        <v>1.14E-2</v>
+        <v>1.3899999999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45629</v>
-      </c>
-      <c r="B46">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="C46">
-        <v>18.39</v>
-      </c>
-      <c r="D46">
-        <v>18.440000000000001</v>
-      </c>
-      <c r="E46">
-        <v>18.28</v>
-      </c>
-      <c r="F46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" s="2">
-        <v>3.8E-3</v>
-      </c>
+        <v>45645</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45628</v>
+        <v>45645</v>
       </c>
       <c r="B47">
-        <v>18.37</v>
+        <v>17.29</v>
       </c>
       <c r="C47">
-        <v>18.28</v>
+        <v>17.61</v>
       </c>
       <c r="D47">
-        <v>18.38</v>
+        <v>17.68</v>
       </c>
       <c r="E47">
-        <v>18.25</v>
+        <v>17.25</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G47" s="2">
-        <v>1.38E-2</v>
+        <v>-1.2E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>45625</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0.31</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+        <v>45644</v>
+      </c>
+      <c r="B48">
+        <v>17.5</v>
+      </c>
+      <c r="C48">
+        <v>18.3</v>
+      </c>
+      <c r="D48">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="E48">
+        <v>17.39</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" s="2">
+        <v>-4.1599999999999998E-2</v>
+      </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>45625</v>
+        <v>45643</v>
       </c>
       <c r="B49">
-        <v>18.12</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="C49">
-        <v>18.25</v>
+        <v>18.32</v>
       </c>
       <c r="D49">
-        <v>18.25</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="E49">
-        <v>18.079999999999998</v>
+        <v>18.16</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G49" s="2">
-        <v>-1.2500000000000001E-2</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>45623</v>
+        <v>45642</v>
       </c>
       <c r="B50">
-        <v>18.350000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="C50">
-        <v>18.48</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="D50">
-        <v>18.48</v>
+        <v>18.3</v>
       </c>
       <c r="E50">
-        <v>18.18</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G50" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>45622</v>
+        <v>45639</v>
       </c>
       <c r="B51">
-        <v>18.239999999999998</v>
+        <v>18.18</v>
       </c>
       <c r="C51">
-        <v>18.45</v>
+        <v>18.3</v>
       </c>
       <c r="D51">
-        <v>18.489999999999998</v>
+        <v>18.32</v>
       </c>
       <c r="E51">
-        <v>18.16</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G51" s="2">
-        <v>-1.14E-2</v>
+        <v>-3.8E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>45621</v>
-      </c>
-      <c r="B52">
-        <v>18.45</v>
-      </c>
-      <c r="C52">
-        <v>18.510000000000002</v>
-      </c>
-      <c r="D52">
-        <v>18.54</v>
-      </c>
-      <c r="E52">
-        <v>18.34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52" s="2">
-        <v>5.4000000000000003E-3</v>
-      </c>
+        <v>45638</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>45618</v>
+        <v>45638</v>
       </c>
       <c r="B53">
-        <v>18.350000000000001</v>
+        <v>18.25</v>
       </c>
       <c r="C53">
-        <v>18.2</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="D53">
-        <v>18.38</v>
+        <v>18.37</v>
       </c>
       <c r="E53">
-        <v>18.12</v>
+        <v>18.18</v>
       </c>
       <c r="F53" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G53" s="2">
-        <v>1.21E-2</v>
+        <v>-1.14E-2</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>45617</v>
-      </c>
-      <c r="B54" s="3">
-        <v>0.24</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+        <v>45637</v>
+      </c>
+      <c r="B54">
+        <v>18.46</v>
+      </c>
+      <c r="C54">
+        <v>18.36</v>
+      </c>
+      <c r="D54">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="E54">
+        <v>18.23</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>45617</v>
+        <v>45636</v>
       </c>
       <c r="B55">
-        <v>18.13</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="C55">
-        <v>18.190000000000001</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="D55">
-        <v>18.309999999999999</v>
+        <v>18.54</v>
       </c>
       <c r="E55">
-        <v>17.920000000000002</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G55" s="2">
-        <v>-3.3E-3</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>45616</v>
+        <v>45635</v>
       </c>
       <c r="B56">
-        <v>18.190000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="C56">
-        <v>18.39</v>
+        <v>18.82</v>
       </c>
       <c r="D56">
-        <v>18.39</v>
+        <v>18.82</v>
       </c>
       <c r="E56">
-        <v>18.03</v>
+        <v>18.46</v>
       </c>
       <c r="F56" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G56" s="2">
-        <v>-1.6000000000000001E-3</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>45615</v>
+        <v>45632</v>
       </c>
       <c r="B57">
-        <v>18.22</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="C57">
-        <v>17.7</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="D57">
-        <v>18.25</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="E57">
-        <v>17.7</v>
+        <v>18.46</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G57" s="2">
-        <v>2.0199999999999999E-2</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>45614</v>
-      </c>
-      <c r="B58">
-        <v>17.86</v>
-      </c>
-      <c r="C58">
-        <v>17.61</v>
-      </c>
-      <c r="D58">
-        <v>17.89</v>
-      </c>
-      <c r="E58">
-        <v>17.59</v>
-      </c>
-      <c r="F58" t="s">
-        <v>51</v>
-      </c>
-      <c r="G58" s="2">
-        <v>1.5299999999999999E-2</v>
-      </c>
+        <v>45631</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>45611</v>
+        <v>45631</v>
       </c>
       <c r="B59">
-        <v>17.59</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="C59">
-        <v>17.62</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="D59">
-        <v>17.63</v>
+        <v>18.57</v>
       </c>
       <c r="E59">
-        <v>17.420000000000002</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G59" s="2">
-        <v>-1.6999999999999999E-3</v>
+        <v>-1.34E-2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>45610</v>
-      </c>
-      <c r="B60" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+        <v>45630</v>
+      </c>
+      <c r="B60">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="C60">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="D60">
+        <v>18.66</v>
+      </c>
+      <c r="E60">
+        <v>18.48</v>
+      </c>
+      <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1.14E-2</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>45610</v>
+        <v>45629</v>
       </c>
       <c r="B61">
-        <v>17.62</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="C61">
-        <v>17.850000000000001</v>
+        <v>18.39</v>
       </c>
       <c r="D61">
-        <v>17.89</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="E61">
-        <v>17.600000000000001</v>
+        <v>18.28</v>
       </c>
       <c r="F61" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G61" s="2">
-        <v>-1.78E-2</v>
+        <v>3.8E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>45609</v>
+        <v>45628</v>
       </c>
       <c r="B62">
-        <v>17.940000000000001</v>
+        <v>18.37</v>
       </c>
       <c r="C62">
-        <v>18.16</v>
+        <v>18.28</v>
       </c>
       <c r="D62">
-        <v>18.239999999999998</v>
+        <v>18.38</v>
       </c>
       <c r="E62">
-        <v>17.86</v>
+        <v>18.25</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="G62" s="2">
-        <v>-8.8000000000000005E-3</v>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>45608</v>
-      </c>
-      <c r="B63">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C63">
-        <v>18.03</v>
-      </c>
-      <c r="D63">
-        <v>18.16</v>
-      </c>
-      <c r="E63">
-        <v>17.920000000000002</v>
-      </c>
-      <c r="F63" t="s">
-        <v>55</v>
-      </c>
-      <c r="G63" s="2">
-        <v>-1.1000000000000001E-3</v>
-      </c>
+        <v>45625</v>
+      </c>
+      <c r="B63" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>45607</v>
+        <v>45625</v>
       </c>
       <c r="B64">
         <v>18.12</v>
       </c>
       <c r="C64">
-        <v>17.84</v>
+        <v>18.25</v>
       </c>
       <c r="D64">
-        <v>18.12</v>
+        <v>18.25</v>
       </c>
       <c r="E64">
-        <v>17.84</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="G64" s="2">
-        <v>2.2599999999999999E-2</v>
+        <v>-1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>45604</v>
+        <v>45623</v>
       </c>
       <c r="B65">
-        <v>17.72</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C65">
-        <v>17.600000000000001</v>
+        <v>18.48</v>
       </c>
       <c r="D65">
-        <v>17.72</v>
+        <v>18.48</v>
       </c>
       <c r="E65">
-        <v>17.600000000000001</v>
+        <v>18.18</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G65" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>45603</v>
-      </c>
-      <c r="B66" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+        <v>45622</v>
+      </c>
+      <c r="B66">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="C66">
+        <v>18.45</v>
+      </c>
+      <c r="D66">
+        <v>18.489999999999998</v>
+      </c>
+      <c r="E66">
+        <v>18.16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>45</v>
+      </c>
+      <c r="G66" s="2">
+        <v>-1.14E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>45603</v>
+        <v>45621</v>
       </c>
       <c r="B67">
-        <v>17.71</v>
+        <v>18.45</v>
       </c>
       <c r="C67">
-        <v>17.55</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="D67">
-        <v>17.78</v>
+        <v>18.54</v>
       </c>
       <c r="E67">
-        <v>17.55</v>
+        <v>18.34</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="G67" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>45602</v>
+        <v>45618</v>
       </c>
       <c r="B68">
-        <v>17.7</v>
+        <v>18.350000000000001</v>
       </c>
       <c r="C68">
-        <v>17.47</v>
+        <v>18.2</v>
       </c>
       <c r="D68">
-        <v>17.7</v>
+        <v>18.38</v>
       </c>
       <c r="E68">
-        <v>17.37</v>
+        <v>18.12</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="G68" s="2">
-        <v>3.39E-2</v>
+        <v>1.21E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>45601</v>
-      </c>
-      <c r="B69">
-        <v>17.12</v>
-      </c>
-      <c r="C69">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="D69">
-        <v>17.170000000000002</v>
-      </c>
-      <c r="E69">
-        <v>17.010000000000002</v>
-      </c>
-      <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" s="2">
-        <v>1.24E-2</v>
-      </c>
+        <v>45617</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>45600</v>
+        <v>45617</v>
       </c>
       <c r="B70">
-        <v>16.91</v>
+        <v>18.13</v>
       </c>
       <c r="C70">
-        <v>16.95</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="D70">
-        <v>17.010000000000002</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="E70">
-        <v>16.84</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="F70" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="G70" s="2">
-        <v>-1.8E-3</v>
+        <v>-3.3E-3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>45597</v>
+        <v>45616</v>
       </c>
       <c r="B71">
-        <v>16.940000000000001</v>
+        <v>18.190000000000001</v>
       </c>
       <c r="C71">
-        <v>17.07</v>
+        <v>18.39</v>
       </c>
       <c r="D71">
-        <v>17.14</v>
+        <v>18.39</v>
       </c>
       <c r="E71">
-        <v>16.920000000000002</v>
+        <v>18.03</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G71" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>45596</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+        <v>45615</v>
+      </c>
+      <c r="B72">
+        <v>18.22</v>
+      </c>
+      <c r="C72">
+        <v>17.7</v>
+      </c>
+      <c r="D72">
+        <v>18.25</v>
+      </c>
+      <c r="E72">
+        <v>17.7</v>
+      </c>
+      <c r="F72" t="s">
+        <v>50</v>
+      </c>
+      <c r="G72" s="2">
+        <v>2.0199999999999999E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>45596</v>
+        <v>45614</v>
       </c>
       <c r="B73">
-        <v>16.920000000000002</v>
+        <v>17.86</v>
       </c>
       <c r="C73">
-        <v>17.29</v>
+        <v>17.61</v>
       </c>
       <c r="D73">
-        <v>17.29</v>
+        <v>17.89</v>
       </c>
       <c r="E73">
-        <v>16.91</v>
+        <v>17.59</v>
       </c>
       <c r="F73" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G73" s="2">
-        <v>-3.3700000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>45595</v>
+        <v>45611</v>
       </c>
       <c r="B74">
-        <v>17.510000000000002</v>
+        <v>17.59</v>
       </c>
       <c r="C74">
-        <v>17.66</v>
+        <v>17.62</v>
       </c>
       <c r="D74">
-        <v>17.66</v>
+        <v>17.63</v>
       </c>
       <c r="E74">
-        <v>17.5</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F74" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G74" s="2">
-        <v>-7.9000000000000008E-3</v>
+        <v>-1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>45594</v>
-      </c>
-      <c r="B75">
-        <v>17.649999999999999</v>
-      </c>
-      <c r="C75">
-        <v>17.61</v>
-      </c>
-      <c r="D75">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="E75">
-        <v>17.53</v>
-      </c>
-      <c r="F75" t="s">
-        <v>63</v>
-      </c>
-      <c r="G75" s="2">
-        <v>5.7000000000000002E-3</v>
-      </c>
+        <v>45610</v>
+      </c>
+      <c r="B75" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>45593</v>
+        <v>45610</v>
       </c>
       <c r="B76">
-        <v>17.55</v>
+        <v>17.62</v>
       </c>
       <c r="C76">
-        <v>17.55</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D76">
-        <v>17.559999999999999</v>
+        <v>17.89</v>
       </c>
       <c r="E76">
-        <v>17.48</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F76" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="G76" s="2">
-        <v>1.09E-2</v>
+        <v>-1.78E-2</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>45590</v>
+        <v>45609</v>
       </c>
       <c r="B77">
-        <v>17.36</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="C77">
-        <v>17.38</v>
+        <v>18.16</v>
       </c>
       <c r="D77">
-        <v>17.5</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="E77">
-        <v>17.309999999999999</v>
+        <v>17.86</v>
       </c>
       <c r="F77" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G77" s="2">
-        <v>2.3E-3</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>45589</v>
-      </c>
-      <c r="B78" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
+        <v>45608</v>
+      </c>
+      <c r="B78">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="C78">
+        <v>18.03</v>
+      </c>
+      <c r="D78">
+        <v>18.16</v>
+      </c>
+      <c r="E78">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="F78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="2">
+        <v>-1.1000000000000001E-3</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>45589</v>
+        <v>45607</v>
       </c>
       <c r="B79">
-        <v>17.32</v>
+        <v>18.12</v>
       </c>
       <c r="C79">
-        <v>17.34</v>
+        <v>17.84</v>
       </c>
       <c r="D79">
-        <v>17.34</v>
+        <v>18.12</v>
       </c>
       <c r="E79">
-        <v>17.170000000000002</v>
+        <v>17.84</v>
       </c>
       <c r="F79" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G79" s="2">
-        <v>0</v>
+        <v>2.2599999999999999E-2</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>45588</v>
+        <v>45604</v>
       </c>
       <c r="B80">
-        <v>17.32</v>
+        <v>17.72</v>
       </c>
       <c r="C80">
-        <v>17.53</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D80">
-        <v>17.54</v>
+        <v>17.72</v>
       </c>
       <c r="E80">
-        <v>17.2</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="G80" s="2">
-        <v>-1.2E-2</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>45587</v>
-      </c>
-      <c r="B81">
-        <v>17.53</v>
-      </c>
-      <c r="C81">
-        <v>17.55</v>
-      </c>
-      <c r="D81">
-        <v>17.59</v>
-      </c>
-      <c r="E81">
-        <v>17.5</v>
-      </c>
-      <c r="F81" t="s">
-        <v>67</v>
-      </c>
-      <c r="G81" s="2">
-        <v>-5.1000000000000004E-3</v>
-      </c>
+        <v>45603</v>
+      </c>
+      <c r="B81" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>45586</v>
+        <v>45603</v>
       </c>
       <c r="B82">
-        <v>17.62</v>
+        <v>17.71</v>
       </c>
       <c r="C82">
-        <v>17.59</v>
+        <v>17.55</v>
       </c>
       <c r="D82">
-        <v>17.62</v>
+        <v>17.78</v>
       </c>
       <c r="E82">
-        <v>17.46</v>
+        <v>17.55</v>
       </c>
       <c r="F82" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="G82" s="2">
-        <v>2.8E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>45583</v>
+        <v>45602</v>
       </c>
       <c r="B83">
-        <v>17.57</v>
+        <v>17.7</v>
       </c>
       <c r="C83">
-        <v>17.43</v>
+        <v>17.47</v>
       </c>
       <c r="D83">
-        <v>17.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="E83">
-        <v>17.420000000000002</v>
+        <v>17.37</v>
       </c>
       <c r="F83" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G83" s="2">
-        <v>1.38E-2</v>
+        <v>3.39E-2</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>45582</v>
-      </c>
-      <c r="B84" s="3">
-        <v>0.18</v>
-      </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
+        <v>45601</v>
+      </c>
+      <c r="B84">
+        <v>17.12</v>
+      </c>
+      <c r="C84">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="D84">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="E84">
+        <v>17.010000000000002</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="2">
+        <v>1.24E-2</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>45582</v>
+        <v>45600</v>
       </c>
       <c r="B85">
-        <v>17.329999999999998</v>
+        <v>16.91</v>
       </c>
       <c r="C85">
-        <v>17.52</v>
+        <v>16.95</v>
       </c>
       <c r="D85">
-        <v>17.52</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="E85">
-        <v>17.309999999999999</v>
+        <v>16.84</v>
       </c>
       <c r="F85" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G85" s="2">
-        <v>-1.4800000000000001E-2</v>
+        <v>-1.8E-3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>45581</v>
+        <v>45597</v>
       </c>
       <c r="B86">
-        <v>17.59</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="C86">
-        <v>17.64</v>
+        <v>17.07</v>
       </c>
       <c r="D86">
-        <v>17.64</v>
+        <v>17.14</v>
       </c>
       <c r="E86">
-        <v>17.45</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="F86" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G86" s="2">
-        <v>5.7000000000000002E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>45580</v>
-      </c>
-      <c r="B87">
-        <v>17.489999999999998</v>
-      </c>
-      <c r="C87">
-        <v>17.73</v>
-      </c>
-      <c r="D87">
-        <v>17.73</v>
-      </c>
-      <c r="E87">
-        <v>17.440000000000001</v>
-      </c>
-      <c r="F87" t="s">
-        <v>72</v>
-      </c>
-      <c r="G87" s="2">
-        <v>-1.1299999999999999E-2</v>
-      </c>
+        <v>45596</v>
+      </c>
+      <c r="B87" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>45579</v>
+        <v>45596</v>
       </c>
       <c r="B88">
-        <v>17.690000000000001</v>
+        <v>16.920000000000002</v>
       </c>
       <c r="C88">
-        <v>17.670000000000002</v>
+        <v>17.29</v>
       </c>
       <c r="D88">
-        <v>17.77</v>
+        <v>17.29</v>
       </c>
       <c r="E88">
-        <v>17.670000000000002</v>
+        <v>16.91</v>
       </c>
       <c r="F88" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G88" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>-3.3700000000000001E-2</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>45576</v>
+        <v>45595</v>
       </c>
       <c r="B89">
-        <v>17.61</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="C89">
-        <v>17.399999999999999</v>
+        <v>17.66</v>
       </c>
       <c r="D89">
-        <v>17.63</v>
+        <v>17.66</v>
       </c>
       <c r="E89">
-        <v>17.36</v>
+        <v>17.5</v>
       </c>
       <c r="F89" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G89" s="2">
-        <v>1.03E-2</v>
+        <v>-7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>45575</v>
-      </c>
-      <c r="B90" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
+        <v>45594</v>
+      </c>
+      <c r="B90">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="C90">
+        <v>17.61</v>
+      </c>
+      <c r="D90">
+        <v>17.670000000000002</v>
+      </c>
+      <c r="E90">
+        <v>17.53</v>
+      </c>
+      <c r="F90" t="s">
+        <v>63</v>
+      </c>
+      <c r="G90" s="2">
+        <v>5.7000000000000002E-3</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>45575</v>
+        <v>45593</v>
       </c>
       <c r="B91">
-        <v>17.43</v>
+        <v>17.55</v>
       </c>
       <c r="C91">
-        <v>17.41</v>
+        <v>17.55</v>
       </c>
       <c r="D91">
-        <v>17.489999999999998</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="E91">
-        <v>17.34</v>
+        <v>17.48</v>
       </c>
       <c r="F91" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="G91" s="2">
-        <v>-1.1900000000000001E-2</v>
+        <v>1.09E-2</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>45574</v>
+        <v>45590</v>
       </c>
       <c r="B92">
-        <v>17.64</v>
+        <v>17.36</v>
       </c>
       <c r="C92">
-        <v>17.59</v>
+        <v>17.38</v>
       </c>
       <c r="D92">
-        <v>17.690000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="E92">
-        <v>17.510000000000002</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="F92" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G92" s="2">
-        <v>2.8E-3</v>
+        <v>2.3E-3</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>45573</v>
-      </c>
-      <c r="B93">
-        <v>17.59</v>
-      </c>
-      <c r="C93">
-        <v>17.52</v>
-      </c>
-      <c r="D93">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="E93">
-        <v>17.48</v>
-      </c>
-      <c r="F93" t="s">
-        <v>77</v>
-      </c>
-      <c r="G93" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
+        <v>45589</v>
+      </c>
+      <c r="B93" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3"/>
+      <c r="F93" s="3"/>
+      <c r="G93" s="3"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>45572</v>
+        <v>45589</v>
       </c>
       <c r="B94">
-        <v>17.52</v>
+        <v>17.32</v>
       </c>
       <c r="C94">
-        <v>17.600000000000001</v>
+        <v>17.34</v>
       </c>
       <c r="D94">
-        <v>17.64</v>
+        <v>17.34</v>
       </c>
       <c r="E94">
-        <v>17.45</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="F94" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="G94" s="2">
-        <v>-4.4999999999999997E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>45569</v>
+        <v>45588</v>
       </c>
       <c r="B95">
-        <v>17.600000000000001</v>
+        <v>17.32</v>
       </c>
       <c r="C95">
-        <v>17.399999999999999</v>
+        <v>17.53</v>
       </c>
       <c r="D95">
-        <v>17.600000000000001</v>
+        <v>17.54</v>
       </c>
       <c r="E95">
-        <v>17.37</v>
+        <v>17.2</v>
       </c>
       <c r="F95" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="G95" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>-1.2E-2</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>45568</v>
-      </c>
-      <c r="B96" s="3">
-        <v>0.21</v>
-      </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
+        <v>45587</v>
+      </c>
+      <c r="B96">
+        <v>17.53</v>
+      </c>
+      <c r="C96">
+        <v>17.55</v>
+      </c>
+      <c r="D96">
+        <v>17.59</v>
+      </c>
+      <c r="E96">
+        <v>17.5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>67</v>
+      </c>
+      <c r="G96" s="2">
+        <v>-5.1000000000000004E-3</v>
+      </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>45568</v>
+        <v>45586</v>
       </c>
       <c r="B97">
-        <v>17.3</v>
+        <v>17.62</v>
       </c>
       <c r="C97">
-        <v>17.309999999999999</v>
+        <v>17.59</v>
       </c>
       <c r="D97">
-        <v>17.36</v>
+        <v>17.62</v>
       </c>
       <c r="E97">
-        <v>17.18</v>
+        <v>17.46</v>
       </c>
       <c r="F97" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="G97" s="2">
-        <v>-1.4200000000000001E-2</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>45567</v>
+        <v>45583</v>
       </c>
       <c r="B98">
-        <v>17.55</v>
+        <v>17.57</v>
       </c>
       <c r="C98">
-        <v>17.579999999999998</v>
+        <v>17.43</v>
       </c>
       <c r="D98">
-        <v>17.62</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E98">
-        <v>17.41</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="F98" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="G98" s="2">
-        <v>-1.1000000000000001E-3</v>
+        <v>1.38E-2</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>45566</v>
-      </c>
-      <c r="B99">
-        <v>17.57</v>
-      </c>
-      <c r="C99">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="D99">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="E99">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="F99" t="s">
-        <v>82</v>
-      </c>
-      <c r="G99" s="2">
-        <v>-1.46E-2</v>
-      </c>
+        <v>45582</v>
+      </c>
+      <c r="B99" s="3">
+        <v>0.18</v>
+      </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>45565</v>
+        <v>45582</v>
       </c>
       <c r="B100">
-        <v>17.829999999999998</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="C100">
-        <v>17.8</v>
+        <v>17.52</v>
       </c>
       <c r="D100">
-        <v>17.87</v>
+        <v>17.52</v>
       </c>
       <c r="E100">
-        <v>17.690000000000001</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="F100" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G100" s="2">
-        <v>-3.3999999999999998E-3</v>
+        <v>-1.4800000000000001E-2</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>45562</v>
+        <v>45581</v>
       </c>
       <c r="B101">
-        <v>17.89</v>
+        <v>17.59</v>
       </c>
       <c r="C101">
-        <v>17.82</v>
+        <v>17.64</v>
       </c>
       <c r="D101">
-        <v>17.899999999999999</v>
+        <v>17.64</v>
       </c>
       <c r="E101">
-        <v>17.82</v>
+        <v>17.45</v>
       </c>
       <c r="F101" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G101" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>5.7000000000000002E-3</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>45561</v>
-      </c>
-      <c r="B102" s="3">
-        <v>0.22</v>
-      </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
+        <v>45580</v>
+      </c>
+      <c r="B102">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="C102">
+        <v>17.73</v>
+      </c>
+      <c r="D102">
+        <v>17.73</v>
+      </c>
+      <c r="E102">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="F102" t="s">
+        <v>72</v>
+      </c>
+      <c r="G102" s="2">
+        <v>-1.1299999999999999E-2</v>
+      </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>45561</v>
+        <v>45579</v>
       </c>
       <c r="B103">
-        <v>17.809999999999999</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="C103">
-        <v>17.850000000000001</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="D103">
-        <v>17.850000000000001</v>
+        <v>17.77</v>
       </c>
       <c r="E103">
-        <v>17.66</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G103" s="2">
-        <v>-3.3999999999999998E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>45560</v>
+        <v>45576</v>
       </c>
       <c r="B104">
-        <v>17.87</v>
+        <v>17.61</v>
       </c>
       <c r="C104">
-        <v>17.93</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D104">
-        <v>17.940000000000001</v>
+        <v>17.63</v>
       </c>
       <c r="E104">
-        <v>17.829999999999998</v>
+        <v>17.36</v>
       </c>
       <c r="F104" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="G104" s="2">
-        <v>-2.2000000000000001E-3</v>
+        <v>1.03E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>45559</v>
-      </c>
-      <c r="B105">
-        <v>17.91</v>
-      </c>
-      <c r="C105">
-        <v>17.84</v>
-      </c>
-      <c r="D105">
-        <v>17.91</v>
-      </c>
-      <c r="E105">
-        <v>17.68</v>
-      </c>
-      <c r="F105" t="s">
-        <v>87</v>
-      </c>
-      <c r="G105" s="2">
-        <v>8.3999999999999995E-3</v>
-      </c>
+        <v>45575</v>
+      </c>
+      <c r="B105" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>45558</v>
+        <v>45575</v>
       </c>
       <c r="B106">
-        <v>17.760000000000002</v>
+        <v>17.43</v>
       </c>
       <c r="C106">
-        <v>17.73</v>
+        <v>17.41</v>
       </c>
       <c r="D106">
-        <v>17.8</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="E106">
-        <v>17.68</v>
+        <v>17.34</v>
       </c>
       <c r="F106" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G106" s="2">
-        <v>6.7999999999999996E-3</v>
+        <v>-1.1900000000000001E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>45555</v>
+        <v>45574</v>
       </c>
       <c r="B107">
         <v>17.64</v>
       </c>
       <c r="C107">
-        <v>17.61</v>
+        <v>17.59</v>
       </c>
       <c r="D107">
         <v>17.690000000000001</v>
       </c>
       <c r="E107">
-        <v>17.52</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="F107" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G107" s="2">
-        <v>-4.4999999999999997E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>45554</v>
-      </c>
-      <c r="B108" s="3">
-        <v>0.23</v>
-      </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
+        <v>45573</v>
+      </c>
+      <c r="B108">
+        <v>17.59</v>
+      </c>
+      <c r="C108">
+        <v>17.52</v>
+      </c>
+      <c r="D108">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E108">
+        <v>17.48</v>
+      </c>
+      <c r="F108" t="s">
+        <v>77</v>
+      </c>
+      <c r="G108" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>45554</v>
+        <v>45572</v>
       </c>
       <c r="B109">
-        <v>17.72</v>
+        <v>17.52</v>
       </c>
       <c r="C109">
-        <v>17.59</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D109">
-        <v>17.78</v>
+        <v>17.64</v>
       </c>
       <c r="E109">
-        <v>17.559999999999999</v>
+        <v>17.45</v>
       </c>
       <c r="F109" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G109" s="2">
-        <v>6.7999999999999996E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>45553</v>
+        <v>45569</v>
       </c>
       <c r="B110">
         <v>17.600000000000001</v>
       </c>
       <c r="C110">
-        <v>17.670000000000002</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D110">
-        <v>17.809999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="E110">
-        <v>17.510000000000002</v>
+        <v>17.37</v>
       </c>
       <c r="F110" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G110" s="2">
-        <v>-5.9999999999999995E-4</v>
+        <v>1.7299999999999999E-2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>45552</v>
-      </c>
-      <c r="B111">
-        <v>17.61</v>
-      </c>
-      <c r="C111">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="D111">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="E111">
-        <v>17.53</v>
-      </c>
-      <c r="F111" t="s">
-        <v>92</v>
-      </c>
-      <c r="G111" s="2">
-        <v>6.3E-3</v>
-      </c>
+        <v>45568</v>
+      </c>
+      <c r="B111" s="3">
+        <v>0.21</v>
+      </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>45551</v>
+        <v>45568</v>
       </c>
       <c r="B112">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="C112">
-        <v>17.489999999999998</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="D112">
-        <v>17.510000000000002</v>
+        <v>17.36</v>
       </c>
       <c r="E112">
-        <v>17.39</v>
+        <v>17.18</v>
       </c>
       <c r="F112" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G112" s="2">
-        <v>-5.9999999999999995E-4</v>
+        <v>-1.4200000000000001E-2</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>45548</v>
+        <v>45567</v>
       </c>
       <c r="B113">
-        <v>17.510000000000002</v>
+        <v>17.55</v>
       </c>
       <c r="C113">
-        <v>17.5</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="D113">
-        <v>17.52</v>
+        <v>17.62</v>
       </c>
       <c r="E113">
         <v>17.41</v>
       </c>
       <c r="F113" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G113" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>45547</v>
+        <v>45566</v>
       </c>
       <c r="B114">
-        <v>17.440000000000001</v>
+        <v>17.57</v>
       </c>
       <c r="C114">
-        <v>17.350000000000001</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D114">
-        <v>17.440000000000001</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="E114">
-        <v>17.22</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F114" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="G114" s="2">
-        <v>5.1999999999999998E-3</v>
+        <v>-1.46E-2</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>45546</v>
+        <v>45565</v>
       </c>
       <c r="B115">
-        <v>17.350000000000001</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="C115">
-        <v>17.07</v>
+        <v>17.8</v>
       </c>
       <c r="D115">
-        <v>17.350000000000001</v>
+        <v>17.87</v>
       </c>
       <c r="E115">
-        <v>16.89</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="F115" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="G115" s="2">
-        <v>1.0500000000000001E-2</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>45545</v>
+        <v>45562</v>
       </c>
       <c r="B116">
-        <v>17.170000000000002</v>
+        <v>17.89</v>
       </c>
       <c r="C116">
-        <v>17.14</v>
+        <v>17.82</v>
       </c>
       <c r="D116">
-        <v>17.18</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="E116">
-        <v>16.899999999999999</v>
+        <v>17.82</v>
       </c>
       <c r="F116" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G116" s="2">
-        <v>8.2000000000000007E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>45544</v>
-      </c>
-      <c r="B117">
-        <v>17.03</v>
-      </c>
-      <c r="C117">
-        <v>16.86</v>
-      </c>
-      <c r="D117">
-        <v>17.12</v>
-      </c>
-      <c r="E117">
-        <v>16.86</v>
-      </c>
-      <c r="F117" t="s">
-        <v>98</v>
-      </c>
-      <c r="G117" s="2">
-        <v>1.9199999999999998E-2</v>
-      </c>
+        <v>45561</v>
+      </c>
+      <c r="B117" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>45541</v>
+        <v>45561</v>
       </c>
       <c r="B118">
-        <v>16.71</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="C118">
-        <v>17.2</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="D118">
-        <v>17.27</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="E118">
-        <v>16.649999999999999</v>
+        <v>17.66</v>
       </c>
       <c r="F118" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="G118" s="2">
-        <v>-2.9100000000000001E-2</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>45540</v>
+        <v>45560</v>
       </c>
       <c r="B119">
-        <v>17.21</v>
+        <v>17.87</v>
       </c>
       <c r="C119">
-        <v>17.16</v>
+        <v>17.93</v>
       </c>
       <c r="D119">
-        <v>17.329999999999998</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="E119">
-        <v>17.11</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="F119" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G119" s="2">
-        <v>-2.3E-3</v>
+        <v>-2.2000000000000001E-3</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>45539</v>
+        <v>45559</v>
       </c>
       <c r="B120">
-        <v>17.25</v>
+        <v>17.91</v>
       </c>
       <c r="C120">
-        <v>17.16</v>
+        <v>17.84</v>
       </c>
       <c r="D120">
-        <v>17.399999999999999</v>
+        <v>17.91</v>
       </c>
       <c r="E120">
-        <v>17.100000000000001</v>
+        <v>17.68</v>
       </c>
       <c r="F120" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="G120" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>45538</v>
+        <v>45558</v>
       </c>
       <c r="B121">
-        <v>17.23</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="C121">
-        <v>17.579999999999998</v>
+        <v>17.73</v>
       </c>
       <c r="D121">
-        <v>17.64</v>
+        <v>17.8</v>
       </c>
       <c r="E121">
-        <v>17.149999999999999</v>
+        <v>17.68</v>
       </c>
       <c r="F121" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G121" s="2">
-        <v>-2.87E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>45534</v>
+        <v>45555</v>
       </c>
       <c r="B122">
-        <v>17.739999999999998</v>
+        <v>17.64</v>
       </c>
       <c r="C122">
-        <v>17.62</v>
+        <v>17.61</v>
       </c>
       <c r="D122">
-        <v>17.75</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="E122">
-        <v>17.54</v>
+        <v>17.52</v>
       </c>
       <c r="F122" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G122" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>45533</v>
-      </c>
-      <c r="B123">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="C123">
-        <v>17.61</v>
-      </c>
-      <c r="D123">
-        <v>17.850000000000001</v>
-      </c>
-      <c r="E123">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F123" t="s">
-        <v>104</v>
-      </c>
-      <c r="G123" s="2">
-        <v>1.6999999999999999E-3</v>
-      </c>
+        <v>45554</v>
+      </c>
+      <c r="B123" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>45532</v>
+        <v>45554</v>
       </c>
       <c r="B124">
-        <v>17.57</v>
+        <v>17.72</v>
       </c>
       <c r="C124">
-        <v>17.829999999999998</v>
+        <v>17.59</v>
       </c>
       <c r="D124">
-        <v>17.829999999999998</v>
+        <v>17.78</v>
       </c>
       <c r="E124">
-        <v>17.43</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="F124" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G124" s="2">
-        <v>-1.5699999999999999E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>45531</v>
+        <v>45553</v>
       </c>
       <c r="B125">
-        <v>17.850000000000001</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C125">
-        <v>17.920000000000002</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="D125">
-        <v>17.920000000000002</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="E125">
-        <v>17.760000000000002</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="F125" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G125" s="2">
-        <v>-3.8999999999999998E-3</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>45530</v>
+        <v>45552</v>
       </c>
       <c r="B126">
-        <v>17.920000000000002</v>
+        <v>17.61</v>
       </c>
       <c r="C126">
-        <v>17.899999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="D126">
-        <v>18.05</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="E126">
-        <v>17.87</v>
+        <v>17.53</v>
       </c>
       <c r="F126" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G126" s="2">
-        <v>2.8E-3</v>
+        <v>6.3E-3</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>45527</v>
+        <v>45551</v>
       </c>
       <c r="B127">
-        <v>17.87</v>
+        <v>17.5</v>
       </c>
       <c r="C127">
-        <v>17.79</v>
+        <v>17.489999999999998</v>
       </c>
       <c r="D127">
-        <v>18</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="E127">
-        <v>17.79</v>
+        <v>17.39</v>
       </c>
       <c r="F127" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="G127" s="2">
-        <v>9.5999999999999992E-3</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>45526</v>
+        <v>45548</v>
       </c>
       <c r="B128">
-        <v>17.7</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="C128">
-        <v>18.010000000000002</v>
+        <v>17.5</v>
       </c>
       <c r="D128">
-        <v>18.04</v>
+        <v>17.52</v>
       </c>
       <c r="E128">
-        <v>17.670000000000002</v>
+        <v>17.41</v>
       </c>
       <c r="F128" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="G128" s="2">
-        <v>-1.9400000000000001E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>45525</v>
+        <v>45547</v>
       </c>
       <c r="B129">
-        <v>18.05</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="C129">
-        <v>17.95</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="D129">
-        <v>18.05</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="E129">
-        <v>17.899999999999999</v>
+        <v>17.22</v>
       </c>
       <c r="F129" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G129" s="2">
-        <v>7.7999999999999996E-3</v>
+        <v>5.1999999999999998E-3</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>45524</v>
+        <v>45546</v>
       </c>
       <c r="B130">
-        <v>17.91</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="C130">
-        <v>18.02</v>
+        <v>17.07</v>
       </c>
       <c r="D130">
-        <v>18.079999999999998</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="E130">
-        <v>17.829999999999998</v>
+        <v>16.89</v>
       </c>
       <c r="F130" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="G130" s="2">
-        <v>-1.1000000000000001E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>45523</v>
+        <v>45545</v>
       </c>
       <c r="B131">
-        <v>17.93</v>
+        <v>17.170000000000002</v>
       </c>
       <c r="C131">
-        <v>17.760000000000002</v>
+        <v>17.14</v>
       </c>
       <c r="D131">
-        <v>17.989999999999998</v>
+        <v>17.18</v>
       </c>
       <c r="E131">
-        <v>17.75</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F131" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G131" s="2">
-        <v>6.1999999999999998E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>45520</v>
+        <v>45544</v>
       </c>
       <c r="B132">
-        <v>17.82</v>
+        <v>17.03</v>
       </c>
       <c r="C132">
-        <v>17.62</v>
+        <v>16.86</v>
       </c>
       <c r="D132">
-        <v>17.84</v>
+        <v>17.12</v>
       </c>
       <c r="E132">
-        <v>17.62</v>
+        <v>16.86</v>
       </c>
       <c r="F132" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G132" s="2">
-        <v>9.5999999999999992E-3</v>
+        <v>1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>45519</v>
-      </c>
-      <c r="B133" s="3">
-        <v>0.59</v>
-      </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
+        <v>45541</v>
+      </c>
+      <c r="B133">
+        <v>16.71</v>
+      </c>
+      <c r="C133">
+        <v>17.2</v>
+      </c>
+      <c r="D133">
+        <v>17.27</v>
+      </c>
+      <c r="E133">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="F133" t="s">
+        <v>99</v>
+      </c>
+      <c r="G133" s="2">
+        <v>-2.9100000000000001E-2</v>
+      </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>45519</v>
+        <v>45540</v>
       </c>
       <c r="B134">
-        <v>17.649999999999999</v>
+        <v>17.21</v>
       </c>
       <c r="C134">
-        <v>17.62</v>
+        <v>17.16</v>
       </c>
       <c r="D134">
-        <v>17.760000000000002</v>
+        <v>17.329999999999998</v>
       </c>
       <c r="E134">
-        <v>17.61</v>
+        <v>17.11</v>
       </c>
       <c r="F134" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="G134" s="2">
-        <v>-2.6499999999999999E-2</v>
+        <v>-2.3E-3</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <v>45518</v>
+        <v>45539</v>
       </c>
       <c r="B135">
-        <v>18.13</v>
+        <v>17.25</v>
       </c>
       <c r="C135">
-        <v>18.2</v>
+        <v>17.16</v>
       </c>
       <c r="D135">
-        <v>18.2</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="E135">
-        <v>17.98</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="F135" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G135" s="2">
-        <v>-5.9999999999999995E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <v>45517</v>
+        <v>45538</v>
       </c>
       <c r="B136">
-        <v>18.14</v>
+        <v>17.23</v>
       </c>
       <c r="C136">
-        <v>17.95</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="D136">
-        <v>18.149999999999999</v>
+        <v>17.64</v>
       </c>
       <c r="E136">
-        <v>17.899999999999999</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="F136" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="G136" s="2">
-        <v>1.6799999999999999E-2</v>
+        <v>-2.87E-2</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>45516</v>
+        <v>45534</v>
       </c>
       <c r="B137">
-        <v>17.84</v>
+        <v>17.739999999999998</v>
       </c>
       <c r="C137">
-        <v>17.940000000000001</v>
+        <v>17.62</v>
       </c>
       <c r="D137">
-        <v>17.940000000000001</v>
+        <v>17.75</v>
       </c>
       <c r="E137">
-        <v>17.7</v>
+        <v>17.54</v>
       </c>
       <c r="F137" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="G137" s="2">
-        <v>-1.1000000000000001E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>45513</v>
+        <v>45533</v>
       </c>
       <c r="B138">
-        <v>17.86</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="C138">
-        <v>17.75</v>
+        <v>17.61</v>
       </c>
       <c r="D138">
-        <v>17.88</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="E138">
-        <v>17.66</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="F138" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="G138" s="2">
-        <v>6.1999999999999998E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <v>45512</v>
+        <v>45532</v>
       </c>
       <c r="B139">
-        <v>17.75</v>
+        <v>17.57</v>
       </c>
       <c r="C139">
-        <v>17.420000000000002</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="D139">
-        <v>17.75</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="E139">
-        <v>17.28</v>
+        <v>17.43</v>
       </c>
       <c r="F139" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G139" s="2">
-        <v>3.32E-2</v>
+        <v>-1.5699999999999999E-2</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <v>45511</v>
+        <v>45531</v>
       </c>
       <c r="B140">
-        <v>17.18</v>
+        <v>17.850000000000001</v>
       </c>
       <c r="C140">
-        <v>17.690000000000001</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="D140">
-        <v>17.7</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="E140">
-        <v>17.11</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="F140" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="G140" s="2">
-        <v>-1.32E-2</v>
+        <v>-3.8999999999999998E-3</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <v>45510</v>
+        <v>45530</v>
       </c>
       <c r="B141">
-        <v>17.41</v>
+        <v>17.920000000000002</v>
       </c>
       <c r="C141">
-        <v>17.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="D141">
-        <v>17.64</v>
+        <v>18.05</v>
       </c>
       <c r="E141">
-        <v>17</v>
+        <v>17.87</v>
       </c>
       <c r="F141" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="G141" s="2">
-        <v>2.1100000000000001E-2</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <v>45509</v>
+        <v>45527</v>
       </c>
       <c r="B142">
-        <v>17.05</v>
+        <v>17.87</v>
       </c>
       <c r="C142">
-        <v>15.76</v>
+        <v>17.79</v>
       </c>
       <c r="D142">
-        <v>17.38</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>15.69</v>
+        <v>17.79</v>
       </c>
       <c r="F142" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G142" s="2">
-        <v>-3.9399999999999998E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <v>45506</v>
+        <v>45526</v>
       </c>
       <c r="B143">
-        <v>17.75</v>
+        <v>17.7</v>
       </c>
       <c r="C143">
-        <v>17.87</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="D143">
-        <v>18.100000000000001</v>
+        <v>18.04</v>
       </c>
       <c r="E143">
-        <v>17.63</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="F143" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G143" s="2">
-        <v>-2.47E-2</v>
+        <v>-1.9400000000000001E-2</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <v>45505</v>
+        <v>45525</v>
       </c>
       <c r="B144">
-        <v>18.2</v>
+        <v>18.05</v>
       </c>
       <c r="C144">
-        <v>18.78</v>
+        <v>17.95</v>
       </c>
       <c r="D144">
-        <v>18.87</v>
+        <v>18.05</v>
       </c>
       <c r="E144">
-        <v>18.059999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F144" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G144" s="2">
-        <v>-3.2899999999999999E-2</v>
+        <v>7.7999999999999996E-3</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <v>45504</v>
+        <v>45524</v>
       </c>
       <c r="B145">
-        <v>18.82</v>
+        <v>17.91</v>
       </c>
       <c r="C145">
-        <v>18.739999999999998</v>
+        <v>18.02</v>
       </c>
       <c r="D145">
-        <v>18.95</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="E145">
-        <v>18.739999999999998</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="F145" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="G145" s="2">
-        <v>1.67E-2</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <v>45503</v>
+        <v>45523</v>
       </c>
       <c r="B146">
-        <v>18.510000000000002</v>
+        <v>17.93</v>
       </c>
       <c r="C146">
-        <v>18.649999999999999</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="D146">
-        <v>18.8</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="E146">
-        <v>18.37</v>
+        <v>17.75</v>
       </c>
       <c r="F146" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="G146" s="2">
-        <v>-5.4000000000000003E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <v>45502</v>
+        <v>45520</v>
       </c>
       <c r="B147">
-        <v>18.61</v>
+        <v>17.82</v>
       </c>
       <c r="C147">
-        <v>18.63</v>
+        <v>17.62</v>
       </c>
       <c r="D147">
-        <v>18.8</v>
+        <v>17.84</v>
       </c>
       <c r="E147">
-        <v>18.55</v>
+        <v>17.62</v>
       </c>
       <c r="F147" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G147" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <v>45499</v>
-      </c>
-      <c r="B148">
-        <v>18.579999999999998</v>
-      </c>
-      <c r="C148">
-        <v>18.53</v>
-      </c>
-      <c r="D148">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="E148">
-        <v>18.45</v>
-      </c>
-      <c r="F148" t="s">
-        <v>128</v>
-      </c>
-      <c r="G148" s="2">
-        <v>1.3599999999999999E-2</v>
-      </c>
+        <v>45519</v>
+      </c>
+      <c r="B148" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <v>45498</v>
+        <v>45519</v>
       </c>
       <c r="B149">
-        <v>18.329999999999998</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="C149">
-        <v>18.489999999999998</v>
+        <v>17.62</v>
       </c>
       <c r="D149">
-        <v>18.7</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="E149">
-        <v>18.07</v>
+        <v>17.61</v>
       </c>
       <c r="F149" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G149" s="2">
-        <v>-8.6999999999999994E-3</v>
+        <v>-2.6499999999999999E-2</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <v>45497</v>
+        <v>45518</v>
       </c>
       <c r="B150">
-        <v>18.489999999999998</v>
+        <v>18.13</v>
       </c>
       <c r="C150">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="D150">
-        <v>19</v>
+        <v>18.2</v>
       </c>
       <c r="E150">
-        <v>18.46</v>
+        <v>17.98</v>
       </c>
       <c r="F150" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G150" s="2">
-        <v>-3.4500000000000003E-2</v>
+        <v>-5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <v>45496</v>
+        <v>45517</v>
       </c>
       <c r="B151">
-        <v>19.149999999999999</v>
+        <v>18.14</v>
       </c>
       <c r="C151">
-        <v>19.2</v>
+        <v>17.95</v>
       </c>
       <c r="D151">
-        <v>19.3</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="E151">
-        <v>19.13</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="F151" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G151" s="2">
-        <v>-4.7000000000000002E-3</v>
+        <v>1.6799999999999999E-2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <v>45495</v>
+        <v>45516</v>
       </c>
       <c r="B152">
-        <v>19.239999999999998</v>
+        <v>17.84</v>
       </c>
       <c r="C152">
-        <v>19.14</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="D152">
-        <v>19.25</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="E152">
-        <v>19.05</v>
+        <v>17.7</v>
       </c>
       <c r="F152" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="G152" s="2">
-        <v>1.32E-2</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <v>45492</v>
+        <v>45513</v>
       </c>
       <c r="B153">
-        <v>18.989999999999998</v>
+        <v>17.86</v>
       </c>
       <c r="C153">
-        <v>19</v>
+        <v>17.75</v>
       </c>
       <c r="D153">
-        <v>19.059999999999999</v>
+        <v>17.88</v>
       </c>
       <c r="E153">
-        <v>18.91</v>
+        <v>17.66</v>
       </c>
       <c r="F153" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G153" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>6.1999999999999998E-3</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <v>45491</v>
+        <v>45512</v>
       </c>
       <c r="B154">
-        <v>18.95</v>
+        <v>17.75</v>
       </c>
       <c r="C154">
-        <v>19.37</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="D154">
-        <v>19.37</v>
+        <v>17.75</v>
       </c>
       <c r="E154">
-        <v>18.87</v>
+        <v>17.28</v>
       </c>
       <c r="F154" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="G154" s="2">
-        <v>-1.35E-2</v>
+        <v>3.32E-2</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <v>45490</v>
-      </c>
-      <c r="B155" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
+        <v>45511</v>
+      </c>
+      <c r="B155">
+        <v>17.18</v>
+      </c>
+      <c r="C155">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="D155">
+        <v>17.7</v>
+      </c>
+      <c r="E155">
+        <v>17.11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>120</v>
+      </c>
+      <c r="G155" s="2">
+        <v>-1.32E-2</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <v>45490</v>
+        <v>45510</v>
       </c>
       <c r="B156">
-        <v>19.21</v>
+        <v>17.41</v>
       </c>
       <c r="C156">
-        <v>19.420000000000002</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="D156">
-        <v>19.420000000000002</v>
+        <v>17.64</v>
       </c>
       <c r="E156">
-        <v>19.100000000000001</v>
+        <v>17</v>
       </c>
       <c r="F156" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="G156" s="2">
-        <v>-4.8099999999999997E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <v>45489</v>
+        <v>45509</v>
       </c>
       <c r="B157">
-        <v>20.18</v>
+        <v>17.05</v>
       </c>
       <c r="C157">
-        <v>20.260000000000002</v>
+        <v>15.76</v>
       </c>
       <c r="D157">
-        <v>20.260000000000002</v>
+        <v>17.38</v>
       </c>
       <c r="E157">
-        <v>20.079999999999998</v>
+        <v>15.69</v>
       </c>
       <c r="F157" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="G157" s="2">
-        <v>-1E-3</v>
+        <v>-3.9399999999999998E-2</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <v>45488</v>
+        <v>45506</v>
       </c>
       <c r="B158">
-        <v>20.2</v>
+        <v>17.75</v>
       </c>
       <c r="C158">
-        <v>20.190000000000001</v>
+        <v>17.87</v>
       </c>
       <c r="D158">
-        <v>20.28</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="E158">
-        <v>20.100000000000001</v>
+        <v>17.63</v>
       </c>
       <c r="F158" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="G158" s="2">
-        <v>1.15E-2</v>
+        <v>-2.47E-2</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <v>45485</v>
+        <v>45505</v>
       </c>
       <c r="B159">
-        <v>19.97</v>
+        <v>18.2</v>
       </c>
       <c r="C159">
-        <v>19.95</v>
+        <v>18.78</v>
       </c>
       <c r="D159">
-        <v>20.09</v>
+        <v>18.87</v>
       </c>
       <c r="E159">
-        <v>19.88</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="F159" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="G159" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>-3.2899999999999999E-2</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <v>45484</v>
+        <v>45504</v>
       </c>
       <c r="B160">
-        <v>19.87</v>
+        <v>18.82</v>
       </c>
       <c r="C160">
-        <v>20.05</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="D160">
-        <v>20.170000000000002</v>
+        <v>18.95</v>
       </c>
       <c r="E160">
-        <v>19.8</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="F160" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="G160" s="2">
-        <v>-6.0000000000000001E-3</v>
+        <v>1.67E-2</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <v>45483</v>
+        <v>45503</v>
       </c>
       <c r="B161">
-        <v>19.989999999999998</v>
+        <v>18.510000000000002</v>
       </c>
       <c r="C161">
-        <v>19.98</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="D161">
-        <v>20</v>
+        <v>18.8</v>
       </c>
       <c r="E161">
-        <v>19.86</v>
+        <v>18.37</v>
       </c>
       <c r="F161" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G161" s="2">
-        <v>6.0000000000000001E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <v>45482</v>
+        <v>45502</v>
       </c>
       <c r="B162">
-        <v>19.87</v>
+        <v>18.61</v>
       </c>
       <c r="C162">
-        <v>19.96</v>
+        <v>18.63</v>
       </c>
       <c r="D162">
-        <v>19.96</v>
+        <v>18.8</v>
       </c>
       <c r="E162">
-        <v>19.829999999999998</v>
+        <v>18.55</v>
       </c>
       <c r="F162" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G162" s="2">
-        <v>-1E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <v>45481</v>
+        <v>45499</v>
       </c>
       <c r="B163">
-        <v>19.89</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="C163">
-        <v>20</v>
+        <v>18.53</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="E163">
-        <v>19.809999999999999</v>
+        <v>18.45</v>
       </c>
       <c r="F163" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G163" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>1.3599999999999999E-2</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <v>45478</v>
+        <v>45498</v>
       </c>
       <c r="B164">
-        <v>19.88</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="C164">
-        <v>19.84</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="D164">
-        <v>19.88</v>
+        <v>18.7</v>
       </c>
       <c r="E164">
-        <v>19.649999999999999</v>
+        <v>18.07</v>
       </c>
       <c r="F164" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G164" s="2">
-        <v>7.1000000000000004E-3</v>
+        <v>-8.6999999999999994E-3</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <v>45476</v>
+        <v>45497</v>
       </c>
       <c r="B165">
-        <v>19.739999999999998</v>
+        <v>18.489999999999998</v>
       </c>
       <c r="C165">
-        <v>19.7</v>
+        <v>19</v>
       </c>
       <c r="D165">
-        <v>19.8</v>
+        <v>19</v>
       </c>
       <c r="E165">
-        <v>19.649999999999999</v>
+        <v>18.46</v>
       </c>
       <c r="F165" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="G165" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>-3.4500000000000003E-2</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <v>45475</v>
+        <v>45496</v>
       </c>
       <c r="B166">
-        <v>19.68</v>
+        <v>19.149999999999999</v>
       </c>
       <c r="C166">
-        <v>19.600000000000001</v>
+        <v>19.2</v>
       </c>
       <c r="D166">
-        <v>19.68</v>
+        <v>19.3</v>
       </c>
       <c r="E166">
-        <v>19.559999999999999</v>
+        <v>19.13</v>
       </c>
       <c r="F166" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="G166" s="2">
-        <v>5.1000000000000004E-3</v>
+        <v>-4.7000000000000002E-3</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <v>45474</v>
+        <v>45495</v>
       </c>
       <c r="B167">
-        <v>19.579999999999998</v>
+        <v>19.239999999999998</v>
       </c>
       <c r="C167">
-        <v>19.510000000000002</v>
+        <v>19.14</v>
       </c>
       <c r="D167">
-        <v>19.64</v>
+        <v>19.25</v>
       </c>
       <c r="E167">
-        <v>19.46</v>
+        <v>19.05</v>
       </c>
       <c r="F167" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="G167" s="2">
-        <v>3.5999999999999999E-3</v>
+        <v>1.32E-2</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <v>45471</v>
+        <v>45492</v>
       </c>
       <c r="B168">
-        <v>19.510000000000002</v>
+        <v>18.989999999999998</v>
       </c>
       <c r="C168">
-        <v>19.75</v>
+        <v>19</v>
       </c>
       <c r="D168">
-        <v>19.75</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="E168">
-        <v>19.45</v>
+        <v>18.91</v>
       </c>
       <c r="F168" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G168" s="2">
-        <v>-9.5999999999999992E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <v>45470</v>
+        <v>45491</v>
       </c>
       <c r="B169">
-        <v>19.7</v>
+        <v>18.95</v>
       </c>
       <c r="C169">
-        <v>19.55</v>
+        <v>19.37</v>
       </c>
       <c r="D169">
-        <v>19.7</v>
+        <v>19.37</v>
       </c>
       <c r="E169">
-        <v>19.54</v>
+        <v>18.87</v>
       </c>
       <c r="F169" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="G169" s="2">
-        <v>6.6E-3</v>
+        <v>-1.35E-2</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <v>45469</v>
-      </c>
-      <c r="B170">
-        <v>19.57</v>
-      </c>
-      <c r="C170">
-        <v>19.670000000000002</v>
-      </c>
-      <c r="D170">
-        <v>19.68</v>
-      </c>
-      <c r="E170">
-        <v>19.510000000000002</v>
-      </c>
-      <c r="F170" t="s">
-        <v>149</v>
-      </c>
-      <c r="G170" s="2">
-        <v>-4.5999999999999999E-3</v>
-      </c>
+        <v>45490</v>
+      </c>
+      <c r="B170" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <v>45468</v>
+        <v>45490</v>
       </c>
       <c r="B171">
-        <v>19.66</v>
+        <v>19.21</v>
       </c>
       <c r="C171">
-        <v>19.43</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="D171">
-        <v>19.66</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="E171">
-        <v>19.420000000000002</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="F171" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G171" s="2">
-        <v>1.3899999999999999E-2</v>
+        <v>-4.8099999999999997E-2</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <v>45467</v>
+        <v>45489</v>
       </c>
       <c r="B172">
-        <v>19.39</v>
+        <v>20.18</v>
       </c>
       <c r="C172">
-        <v>19.559999999999999</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="D172">
-        <v>19.59</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="E172">
-        <v>19.32</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="F172" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="G172" s="2">
-        <v>-9.1999999999999998E-3</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <v>45464</v>
+        <v>45488</v>
       </c>
       <c r="B173">
-        <v>19.57</v>
+        <v>20.2</v>
       </c>
       <c r="C173">
-        <v>19.55</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="D173">
-        <v>19.57</v>
+        <v>20.28</v>
       </c>
       <c r="E173">
-        <v>19.440000000000001</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F173" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G173" s="2">
-        <v>-5.0000000000000001E-4</v>
+        <v>1.15E-2</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <v>45463</v>
+        <v>45485</v>
       </c>
       <c r="B174">
-        <v>19.579999999999998</v>
+        <v>19.97</v>
       </c>
       <c r="C174">
-        <v>19.600000000000001</v>
+        <v>19.95</v>
       </c>
       <c r="D174">
-        <v>19.64</v>
+        <v>20.09</v>
       </c>
       <c r="E174">
-        <v>19.420000000000002</v>
+        <v>19.88</v>
       </c>
       <c r="F174" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="G174" s="2">
-        <v>2E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <v>45461</v>
+        <v>45484</v>
       </c>
       <c r="B175">
-        <v>19.54</v>
+        <v>19.87</v>
       </c>
       <c r="C175">
-        <v>19.649999999999999</v>
+        <v>20.05</v>
       </c>
       <c r="D175">
-        <v>19.649999999999999</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="E175">
-        <v>19.510000000000002</v>
+        <v>19.8</v>
       </c>
       <c r="F175" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="G175" s="2">
-        <v>-6.6E-3</v>
+        <v>-6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <v>45460</v>
+        <v>45483</v>
       </c>
       <c r="B176">
-        <v>19.670000000000002</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="C176">
-        <v>19.59</v>
+        <v>19.98</v>
       </c>
       <c r="D176">
-        <v>19.75</v>
+        <v>20</v>
       </c>
       <c r="E176">
-        <v>19.38</v>
+        <v>19.86</v>
       </c>
       <c r="F176" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="G176" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <v>45457</v>
-      </c>
-      <c r="B177" s="3">
-        <v>0.73</v>
-      </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
+        <v>45482</v>
+      </c>
+      <c r="B177">
+        <v>19.87</v>
+      </c>
+      <c r="C177">
+        <v>19.96</v>
+      </c>
+      <c r="D177">
+        <v>19.96</v>
+      </c>
+      <c r="E177">
+        <v>19.829999999999998</v>
+      </c>
+      <c r="F177" t="s">
+        <v>141</v>
+      </c>
+      <c r="G177" s="2">
+        <v>-1E-3</v>
+      </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <v>45457</v>
+        <v>45481</v>
       </c>
       <c r="B178">
-        <v>19.59</v>
+        <v>19.89</v>
       </c>
       <c r="C178">
-        <v>19.600000000000001</v>
+        <v>20</v>
       </c>
       <c r="D178">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="E178">
-        <v>19.46</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="F178" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="G178" s="2">
-        <v>-4.0599999999999997E-2</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <v>45456</v>
+        <v>45478</v>
       </c>
       <c r="B179">
-        <v>20.420000000000002</v>
+        <v>19.88</v>
       </c>
       <c r="C179">
-        <v>20.73</v>
+        <v>19.84</v>
       </c>
       <c r="D179">
-        <v>20.73</v>
+        <v>19.88</v>
       </c>
       <c r="E179">
-        <v>20.350000000000001</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="F179" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G179" s="2">
-        <v>-9.7000000000000003E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <v>45455</v>
+        <v>45476</v>
       </c>
       <c r="B180">
-        <v>20.62</v>
+        <v>19.739999999999998</v>
       </c>
       <c r="C180">
-        <v>20.69</v>
+        <v>19.7</v>
       </c>
       <c r="D180">
-        <v>20.73</v>
+        <v>19.8</v>
       </c>
       <c r="E180">
-        <v>20.55</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="F180" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G180" s="2">
-        <v>8.8000000000000005E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <v>45454</v>
+        <v>45475</v>
       </c>
       <c r="B181">
-        <v>20.440000000000001</v>
+        <v>19.68</v>
       </c>
       <c r="C181">
-        <v>20.51</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D181">
-        <v>20.55</v>
+        <v>19.68</v>
       </c>
       <c r="E181">
-        <v>20.21</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="F181" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G181" s="2">
-        <v>-3.3999999999999998E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <v>45453</v>
+        <v>45474</v>
       </c>
       <c r="B182">
-        <v>20.51</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="C182">
-        <v>20.7</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="D182">
-        <v>20.89</v>
+        <v>19.64</v>
       </c>
       <c r="E182">
-        <v>20.399999999999999</v>
+        <v>19.46</v>
       </c>
       <c r="F182" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="G182" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <v>45450</v>
+        <v>45471</v>
       </c>
       <c r="B183">
-        <v>20.420000000000002</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="C183">
-        <v>20.52</v>
+        <v>19.75</v>
       </c>
       <c r="D183">
-        <v>20.61</v>
+        <v>19.75</v>
       </c>
       <c r="E183">
-        <v>20.399999999999999</v>
+        <v>19.45</v>
       </c>
       <c r="F183" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G183" s="2">
-        <v>-4.8999999999999998E-3</v>
+        <v>-9.5999999999999992E-3</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <v>45449</v>
+        <v>45470</v>
       </c>
       <c r="B184">
-        <v>20.52</v>
+        <v>19.7</v>
       </c>
       <c r="C184">
-        <v>20.48</v>
+        <v>19.55</v>
       </c>
       <c r="D184">
-        <v>20.55</v>
+        <v>19.7</v>
       </c>
       <c r="E184">
-        <v>20.399999999999999</v>
+        <v>19.54</v>
       </c>
       <c r="F184" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="G184" s="2">
-        <v>3.3999999999999998E-3</v>
+        <v>6.6E-3</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <v>45448</v>
+        <v>45469</v>
       </c>
       <c r="B185">
-        <v>20.45</v>
+        <v>19.57</v>
       </c>
       <c r="C185">
-        <v>20.39</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="D185">
-        <v>20.45</v>
+        <v>19.68</v>
       </c>
       <c r="E185">
-        <v>20.2</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="F185" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="G185" s="2">
-        <v>9.4000000000000004E-3</v>
+        <v>-4.5999999999999999E-3</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <v>45447</v>
+        <v>45468</v>
       </c>
       <c r="B186">
-        <v>20.260000000000002</v>
+        <v>19.66</v>
       </c>
       <c r="C186">
-        <v>20.22</v>
+        <v>19.43</v>
       </c>
       <c r="D186">
-        <v>20.29</v>
+        <v>19.66</v>
       </c>
       <c r="E186">
-        <v>20.13</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="F186" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G186" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>1.3899999999999999E-2</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <v>45446</v>
+        <v>45467</v>
       </c>
       <c r="B187">
-        <v>20.21</v>
+        <v>19.39</v>
       </c>
       <c r="C187">
-        <v>20.29</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="D187">
-        <v>20.309999999999999</v>
+        <v>19.59</v>
       </c>
       <c r="E187">
-        <v>20.02</v>
+        <v>19.32</v>
       </c>
       <c r="F187" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="G187" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>-9.1999999999999998E-3</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <v>45443</v>
+        <v>45464</v>
       </c>
       <c r="B188">
-        <v>20.11</v>
+        <v>19.57</v>
       </c>
       <c r="C188">
-        <v>20.32</v>
+        <v>19.55</v>
       </c>
       <c r="D188">
-        <v>20.350000000000001</v>
+        <v>19.57</v>
       </c>
       <c r="E188">
-        <v>19.7</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="F188" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G188" s="2">
-        <v>-4.4999999999999997E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <v>45442</v>
+        <v>45463</v>
       </c>
       <c r="B189">
-        <v>20.2</v>
+        <v>19.579999999999998</v>
       </c>
       <c r="C189">
-        <v>20.2</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D189">
-        <v>20.350000000000001</v>
+        <v>19.64</v>
       </c>
       <c r="E189">
-        <v>20.13</v>
+        <v>19.420000000000002</v>
       </c>
       <c r="F189" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="G189" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <v>45441</v>
+        <v>45461</v>
       </c>
       <c r="B190">
-        <v>20.190000000000001</v>
+        <v>19.54</v>
       </c>
       <c r="C190">
-        <v>20.14</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="D190">
-        <v>20.2</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="E190">
-        <v>20.05</v>
+        <v>19.510000000000002</v>
       </c>
       <c r="F190" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G190" s="2">
-        <v>-5.4000000000000003E-3</v>
+        <v>-6.6E-3</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <v>45440</v>
+        <v>45460</v>
       </c>
       <c r="B191">
-        <v>20.3</v>
+        <v>19.670000000000002</v>
       </c>
       <c r="C191">
-        <v>20.350000000000001</v>
+        <v>19.59</v>
       </c>
       <c r="D191">
-        <v>20.36</v>
+        <v>19.75</v>
       </c>
       <c r="E191">
-        <v>20.100000000000001</v>
+        <v>19.38</v>
       </c>
       <c r="F191" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="G191" s="2">
-        <v>2E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <v>45436</v>
-      </c>
-      <c r="B192">
-        <v>20.260000000000002</v>
-      </c>
-      <c r="C192">
-        <v>20.04</v>
-      </c>
-      <c r="D192">
-        <v>20.27</v>
-      </c>
-      <c r="E192">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="F192" t="s">
-        <v>169</v>
-      </c>
-      <c r="G192" s="2">
-        <v>1.6E-2</v>
-      </c>
+        <v>45457</v>
+      </c>
+      <c r="B192" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <v>45435</v>
+        <v>45457</v>
       </c>
       <c r="B193">
-        <v>19.940000000000001</v>
+        <v>19.59</v>
       </c>
       <c r="C193">
-        <v>20.39</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="D193">
-        <v>20.39</v>
+        <v>19.7</v>
       </c>
       <c r="E193">
-        <v>19.850000000000001</v>
+        <v>19.46</v>
       </c>
       <c r="F193" t="s">
-        <v>170</v>
+        <v>47</v>
       </c>
       <c r="G193" s="2">
-        <v>-1.38E-2</v>
+        <v>-4.0599999999999997E-2</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <v>45434</v>
+        <v>45456</v>
       </c>
       <c r="B194">
-        <v>20.22</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="C194">
-        <v>20.39</v>
+        <v>20.73</v>
       </c>
       <c r="D194">
-        <v>20.39</v>
+        <v>20.73</v>
       </c>
       <c r="E194">
-        <v>20.13</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F194" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="G194" s="2">
-        <v>-7.4000000000000003E-3</v>
+        <v>-9.7000000000000003E-3</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <v>45433</v>
+        <v>45455</v>
       </c>
       <c r="B195">
-        <v>20.37</v>
+        <v>20.62</v>
       </c>
       <c r="C195">
-        <v>20.25</v>
+        <v>20.69</v>
       </c>
       <c r="D195">
-        <v>20.37</v>
+        <v>20.73</v>
       </c>
       <c r="E195">
-        <v>20.239999999999998</v>
+        <v>20.55</v>
       </c>
       <c r="F195" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G195" s="2">
-        <v>1.5E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <v>45432</v>
+        <v>45454</v>
       </c>
       <c r="B196">
-        <v>20.34</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="C196">
-        <v>20.170000000000002</v>
+        <v>20.51</v>
       </c>
       <c r="D196">
-        <v>20.350000000000001</v>
+        <v>20.55</v>
       </c>
       <c r="E196">
-        <v>20.14</v>
+        <v>20.21</v>
       </c>
       <c r="F196" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="G196" s="2">
-        <v>8.3999999999999995E-3</v>
+        <v>-3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <v>45429</v>
+        <v>45453</v>
       </c>
       <c r="B197">
-        <v>20.170000000000002</v>
+        <v>20.51</v>
       </c>
       <c r="C197">
-        <v>20.11</v>
+        <v>20.7</v>
       </c>
       <c r="D197">
-        <v>20.170000000000002</v>
+        <v>20.89</v>
       </c>
       <c r="E197">
-        <v>20.02</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F197" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G197" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <v>45428</v>
+        <v>45450</v>
       </c>
       <c r="B198">
-        <v>20.03</v>
+        <v>20.420000000000002</v>
       </c>
       <c r="C198">
-        <v>20.11</v>
+        <v>20.52</v>
       </c>
       <c r="D198">
-        <v>20.11</v>
+        <v>20.61</v>
       </c>
       <c r="E198">
-        <v>20</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="F198" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G198" s="2">
-        <v>-1.5E-3</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <v>45427</v>
-      </c>
-      <c r="B199" s="3">
-        <v>0.73</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
+        <v>45449</v>
+      </c>
+      <c r="B199">
+        <v>20.52</v>
+      </c>
+      <c r="C199">
+        <v>20.48</v>
+      </c>
+      <c r="D199">
+        <v>20.55</v>
+      </c>
+      <c r="E199">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F199" t="s">
+        <v>161</v>
+      </c>
+      <c r="G199" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <v>45427</v>
+        <v>45448</v>
       </c>
       <c r="B200">
-        <v>20.059999999999999</v>
+        <v>20.45</v>
       </c>
       <c r="C200">
-        <v>20.11</v>
+        <v>20.39</v>
       </c>
       <c r="D200">
-        <v>20.11</v>
+        <v>20.45</v>
       </c>
       <c r="E200">
-        <v>19.93</v>
+        <v>20.2</v>
       </c>
       <c r="F200" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="G200" s="2">
-        <v>-2.76E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
-        <v>45426</v>
+        <v>45447</v>
       </c>
       <c r="B201">
-        <v>20.63</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="C201">
-        <v>20.51</v>
+        <v>20.22</v>
       </c>
       <c r="D201">
-        <v>20.65</v>
+        <v>20.29</v>
       </c>
       <c r="E201">
-        <v>20.45</v>
+        <v>20.13</v>
       </c>
       <c r="F201" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="G201" s="2">
-        <v>8.8000000000000005E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
-        <v>45425</v>
+        <v>45446</v>
       </c>
       <c r="B202">
-        <v>20.45</v>
+        <v>20.21</v>
       </c>
       <c r="C202">
-        <v>20.45</v>
+        <v>20.29</v>
       </c>
       <c r="D202">
-        <v>20.48</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="E202">
-        <v>20.350000000000001</v>
+        <v>20.02</v>
       </c>
       <c r="F202" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="G202" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
-        <v>45422</v>
+        <v>45443</v>
       </c>
       <c r="B203">
-        <v>20.29</v>
+        <v>20.11</v>
       </c>
       <c r="C203">
-        <v>20.59</v>
+        <v>20.32</v>
       </c>
       <c r="D203">
-        <v>20.59</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E203">
-        <v>20.260000000000002</v>
+        <v>19.7</v>
       </c>
       <c r="F203" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="G203" s="2">
-        <v>-1.0699999999999999E-2</v>
+        <v>-4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
-        <v>45421</v>
+        <v>45442</v>
       </c>
       <c r="B204">
-        <v>20.51</v>
+        <v>20.2</v>
       </c>
       <c r="C204">
-        <v>20.54</v>
+        <v>20.2</v>
       </c>
       <c r="D204">
-        <v>20.57</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E204">
-        <v>20.350000000000001</v>
+        <v>20.13</v>
       </c>
       <c r="F204" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="G204" s="2">
-        <v>2.8999999999999998E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
-        <v>45420</v>
+        <v>45441</v>
       </c>
       <c r="B205">
-        <v>20.45</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="C205">
-        <v>20.41</v>
+        <v>20.14</v>
       </c>
       <c r="D205">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="E205">
-        <v>20.3</v>
+        <v>20.05</v>
       </c>
       <c r="F205" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="G205" s="2">
-        <v>-3.3999999999999998E-3</v>
+        <v>-5.4000000000000003E-3</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
-        <v>45419</v>
+        <v>45440</v>
       </c>
       <c r="B206">
-        <v>20.52</v>
+        <v>20.3</v>
       </c>
       <c r="C206">
-        <v>20.71</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="D206">
-        <v>20.71</v>
+        <v>20.36</v>
       </c>
       <c r="E206">
-        <v>20.47</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="F206" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G206" s="2">
-        <v>-7.7000000000000002E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
-        <v>45418</v>
+        <v>45436</v>
       </c>
       <c r="B207">
-        <v>20.68</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="C207">
-        <v>20.58</v>
+        <v>20.04</v>
       </c>
       <c r="D207">
-        <v>20.68</v>
+        <v>20.27</v>
       </c>
       <c r="E207">
-        <v>20.5</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="F207" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="G207" s="2">
-        <v>1.0800000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
-        <v>45415</v>
+        <v>45435</v>
       </c>
       <c r="B208">
-        <v>20.46</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="C208">
         <v>20.39</v>
       </c>
       <c r="D208">
-        <v>20.55</v>
+        <v>20.39</v>
       </c>
       <c r="E208">
-        <v>20.28</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="F208" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="G208" s="2">
-        <v>1.24E-2</v>
+        <v>-1.38E-2</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
-        <v>45414</v>
+        <v>45434</v>
       </c>
       <c r="B209">
-        <v>20.21</v>
+        <v>20.22</v>
       </c>
       <c r="C209">
-        <v>20</v>
+        <v>20.39</v>
       </c>
       <c r="D209">
-        <v>20.23</v>
+        <v>20.39</v>
       </c>
       <c r="E209">
-        <v>19.8</v>
+        <v>20.13</v>
       </c>
       <c r="F209" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G209" s="2">
-        <v>2.12E-2</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
-        <v>45413</v>
+        <v>45433</v>
       </c>
       <c r="B210">
-        <v>19.79</v>
+        <v>20.37</v>
       </c>
       <c r="C210">
-        <v>19.809999999999999</v>
+        <v>20.25</v>
       </c>
       <c r="D210">
-        <v>20.14</v>
+        <v>20.37</v>
       </c>
       <c r="E210">
-        <v>19.600000000000001</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="F210" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G210" s="2">
-        <v>-6.4999999999999997E-3</v>
+        <v>1.5E-3</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
-        <v>45412</v>
+        <v>45432</v>
       </c>
       <c r="B211">
-        <v>19.920000000000002</v>
+        <v>20.34</v>
       </c>
       <c r="C211">
-        <v>20.010000000000002</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="D211">
-        <v>20.3</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="E211">
-        <v>19.899999999999999</v>
+        <v>20.14</v>
       </c>
       <c r="F211" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="G211" s="2">
-        <v>-1.9199999999999998E-2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
-        <v>45411</v>
+        <v>45429</v>
       </c>
       <c r="B212">
-        <v>20.309999999999999</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="C212">
-        <v>20.38</v>
+        <v>20.11</v>
       </c>
       <c r="D212">
-        <v>20.38</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="E212">
-        <v>20.2</v>
+        <v>20.02</v>
       </c>
       <c r="F212" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="G212" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
-        <v>45408</v>
+        <v>45428</v>
       </c>
       <c r="B213">
-        <v>20.22</v>
+        <v>20.03</v>
       </c>
       <c r="C213">
-        <v>20.05</v>
+        <v>20.11</v>
       </c>
       <c r="D213">
-        <v>20.23</v>
+        <v>20.11</v>
       </c>
       <c r="E213">
-        <v>20.010000000000002</v>
+        <v>20</v>
       </c>
       <c r="F213" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G213" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>-1.5E-3</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
-        <v>45407</v>
-      </c>
-      <c r="B214">
-        <v>19.96</v>
-      </c>
-      <c r="C214">
-        <v>19.61</v>
-      </c>
-      <c r="D214">
-        <v>19.97</v>
-      </c>
-      <c r="E214">
-        <v>19.5</v>
-      </c>
-      <c r="F214" t="s">
-        <v>190</v>
-      </c>
-      <c r="G214" s="2">
-        <v>-5.0000000000000001E-3</v>
-      </c>
+        <v>45427</v>
+      </c>
+      <c r="B214" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+      <c r="G214" s="3"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
-        <v>45406</v>
+        <v>45427</v>
       </c>
       <c r="B215">
         <v>20.059999999999999</v>
       </c>
       <c r="C215">
-        <v>20.22</v>
+        <v>20.11</v>
       </c>
       <c r="D215">
-        <v>20.23</v>
+        <v>20.11</v>
       </c>
       <c r="E215">
-        <v>19.96</v>
+        <v>19.93</v>
       </c>
       <c r="F215" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G215" s="2">
-        <v>2.5000000000000001E-3</v>
+        <v>-2.76E-2</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
-        <v>45405</v>
+        <v>45426</v>
       </c>
       <c r="B216">
-        <v>20.010000000000002</v>
+        <v>20.63</v>
       </c>
       <c r="C216">
-        <v>19.8</v>
+        <v>20.51</v>
       </c>
       <c r="D216">
-        <v>20.059999999999999</v>
+        <v>20.65</v>
       </c>
       <c r="E216">
-        <v>19.7</v>
+        <v>20.45</v>
       </c>
       <c r="F216" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G216" s="2">
-        <v>1.6299999999999999E-2</v>
+        <v>8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
-        <v>45404</v>
+        <v>45425</v>
       </c>
       <c r="B217">
-        <v>19.690000000000001</v>
+        <v>20.45</v>
       </c>
       <c r="C217">
-        <v>19.59</v>
+        <v>20.45</v>
       </c>
       <c r="D217">
-        <v>19.77</v>
+        <v>20.48</v>
       </c>
       <c r="E217">
-        <v>19.399999999999999</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F217" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G217" s="2">
-        <v>1.6E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
-        <v>45401</v>
+        <v>45422</v>
       </c>
       <c r="B218">
-        <v>19.38</v>
+        <v>20.29</v>
       </c>
       <c r="C218">
-        <v>19.829999999999998</v>
+        <v>20.59</v>
       </c>
       <c r="D218">
-        <v>19.84</v>
+        <v>20.59</v>
       </c>
       <c r="E218">
-        <v>19.38</v>
+        <v>20.260000000000002</v>
       </c>
       <c r="F218" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="G218" s="2">
-        <v>-2.3699999999999999E-2</v>
+        <v>-1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
-        <v>45400</v>
+        <v>45421</v>
       </c>
       <c r="B219">
-        <v>19.850000000000001</v>
+        <v>20.51</v>
       </c>
       <c r="C219">
-        <v>19.98</v>
+        <v>20.54</v>
       </c>
       <c r="D219">
-        <v>20.11</v>
+        <v>20.57</v>
       </c>
       <c r="E219">
-        <v>19.77</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="F219" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="G219" s="2">
-        <v>-3.5000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
-        <v>45399</v>
-      </c>
-      <c r="B220" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
+        <v>45420</v>
+      </c>
+      <c r="B220">
+        <v>20.45</v>
+      </c>
+      <c r="C220">
+        <v>20.41</v>
+      </c>
+      <c r="D220">
+        <v>20.5</v>
+      </c>
+      <c r="E220">
+        <v>20.3</v>
+      </c>
+      <c r="F220" t="s">
+        <v>181</v>
+      </c>
+      <c r="G220" s="2">
+        <v>-3.3999999999999998E-3</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
-        <v>45399</v>
+        <v>45419</v>
       </c>
       <c r="B221">
-        <v>19.920000000000002</v>
+        <v>20.52</v>
       </c>
       <c r="C221">
-        <v>20.309999999999999</v>
+        <v>20.71</v>
       </c>
       <c r="D221">
-        <v>20.309999999999999</v>
+        <v>20.71</v>
       </c>
       <c r="E221">
-        <v>19.77</v>
+        <v>20.47</v>
       </c>
       <c r="F221" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G221" s="2">
-        <v>-3.9100000000000003E-2</v>
+        <v>-7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
-        <v>45398</v>
+        <v>45418</v>
       </c>
       <c r="B222">
-        <v>20.73</v>
+        <v>20.68</v>
       </c>
       <c r="C222">
-        <v>20.8</v>
+        <v>20.58</v>
       </c>
       <c r="D222">
-        <v>20.86</v>
+        <v>20.68</v>
       </c>
       <c r="E222">
-        <v>20.56</v>
+        <v>20.5</v>
       </c>
       <c r="F222" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G222" s="2">
-        <v>-3.8E-3</v>
+        <v>1.0800000000000001E-2</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
-        <v>45397</v>
+        <v>45415</v>
       </c>
       <c r="B223">
-        <v>20.81</v>
+        <v>20.46</v>
       </c>
       <c r="C223">
-        <v>21.46</v>
+        <v>20.39</v>
       </c>
       <c r="D223">
-        <v>21.46</v>
+        <v>20.55</v>
       </c>
       <c r="E223">
-        <v>20.75</v>
+        <v>20.28</v>
       </c>
       <c r="F223" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="G223" s="2">
-        <v>-2.2100000000000002E-2</v>
+        <v>1.24E-2</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
-        <v>45394</v>
+        <v>45414</v>
       </c>
       <c r="B224">
-        <v>21.28</v>
+        <v>20.21</v>
       </c>
       <c r="C224">
-        <v>21.68</v>
+        <v>20</v>
       </c>
       <c r="D224">
-        <v>21.68</v>
+        <v>20.23</v>
       </c>
       <c r="E224">
-        <v>21.21</v>
+        <v>19.8</v>
       </c>
       <c r="F224" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G224" s="2">
-        <v>-1.8499999999999999E-2</v>
+        <v>2.12E-2</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
-        <v>45393</v>
+        <v>45413</v>
       </c>
       <c r="B225">
-        <v>21.68</v>
+        <v>19.79</v>
       </c>
       <c r="C225">
-        <v>21.47</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="D225">
-        <v>21.7</v>
+        <v>20.14</v>
       </c>
       <c r="E225">
-        <v>21.34</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F225" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="G225" s="2">
-        <v>1.17E-2</v>
+        <v>-6.4999999999999997E-3</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
-        <v>45392</v>
+        <v>45412</v>
       </c>
       <c r="B226">
-        <v>21.43</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="C226">
-        <v>21.57</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="D226">
-        <v>21.57</v>
+        <v>20.3</v>
       </c>
       <c r="E226">
-        <v>21.25</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F226" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="G226" s="2">
-        <v>-4.1999999999999997E-3</v>
+        <v>-1.9199999999999998E-2</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
-        <v>45391</v>
+        <v>45411</v>
       </c>
       <c r="B227">
-        <v>21.52</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="C227">
-        <v>21.52</v>
+        <v>20.38</v>
       </c>
       <c r="D227">
-        <v>21.62</v>
+        <v>20.38</v>
       </c>
       <c r="E227">
-        <v>21.35</v>
+        <v>20.2</v>
       </c>
       <c r="F227" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="G227" s="2">
-        <v>1.4E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
-        <v>45390</v>
+        <v>45408</v>
       </c>
       <c r="B228">
-        <v>21.49</v>
+        <v>20.22</v>
       </c>
       <c r="C228">
-        <v>21.36</v>
+        <v>20.05</v>
       </c>
       <c r="D228">
-        <v>21.58</v>
+        <v>20.23</v>
       </c>
       <c r="E228">
-        <v>21.34</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="F228" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="G228" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
-        <v>45387</v>
+        <v>45407</v>
       </c>
       <c r="B229">
-        <v>21.34</v>
+        <v>19.96</v>
       </c>
       <c r="C229">
-        <v>21.18</v>
+        <v>19.61</v>
       </c>
       <c r="D229">
-        <v>21.39</v>
+        <v>19.97</v>
       </c>
       <c r="E229">
-        <v>21.12</v>
+        <v>19.5</v>
       </c>
       <c r="F229" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="G229" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
-        <v>45386</v>
+        <v>45406</v>
       </c>
       <c r="B230">
-        <v>21.17</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="C230">
-        <v>21.5</v>
+        <v>20.22</v>
       </c>
       <c r="D230">
-        <v>21.66</v>
+        <v>20.23</v>
       </c>
       <c r="E230">
-        <v>21.15</v>
+        <v>19.96</v>
       </c>
       <c r="F230" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="G230" s="2">
-        <v>-1.4E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
-        <v>45385</v>
+        <v>45405</v>
       </c>
       <c r="B231">
-        <v>21.47</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="C231">
-        <v>21.43</v>
+        <v>19.8</v>
       </c>
       <c r="D231">
-        <v>21.54</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="E231">
-        <v>21.3</v>
+        <v>19.7</v>
       </c>
       <c r="F231" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="G231" s="2">
-        <v>2.8E-3</v>
+        <v>1.6299999999999999E-2</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
-        <v>45384</v>
+        <v>45404</v>
       </c>
       <c r="B232">
-        <v>21.41</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="C232">
-        <v>21.38</v>
+        <v>19.59</v>
       </c>
       <c r="D232">
-        <v>21.43</v>
+        <v>19.77</v>
       </c>
       <c r="E232">
-        <v>21.09</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F232" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="G232" s="2">
-        <v>-8.8000000000000005E-3</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
-        <v>45383</v>
+        <v>45401</v>
       </c>
       <c r="B233">
-        <v>21.6</v>
+        <v>19.38</v>
       </c>
       <c r="C233">
-        <v>21.75</v>
+        <v>19.829999999999998</v>
       </c>
       <c r="D233">
-        <v>21.75</v>
+        <v>19.84</v>
       </c>
       <c r="E233">
-        <v>21.47</v>
+        <v>19.38</v>
       </c>
       <c r="F233" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G233" s="2">
-        <v>-3.7000000000000002E-3</v>
+        <v>-2.3699999999999999E-2</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
-        <v>45379</v>
+        <v>45400</v>
       </c>
       <c r="B234">
-        <v>21.68</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="C234">
-        <v>21.64</v>
+        <v>19.98</v>
       </c>
       <c r="D234">
-        <v>21.72</v>
+        <v>20.11</v>
       </c>
       <c r="E234">
-        <v>21.55</v>
+        <v>19.77</v>
       </c>
       <c r="F234" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="G234" s="2">
-        <v>1.8E-3</v>
+        <v>-3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
-        <v>45378</v>
-      </c>
-      <c r="B235">
-        <v>21.64</v>
-      </c>
-      <c r="C235">
-        <v>21.75</v>
-      </c>
-      <c r="D235">
-        <v>21.75</v>
-      </c>
-      <c r="E235">
-        <v>21.45</v>
-      </c>
-      <c r="F235" t="s">
-        <v>210</v>
-      </c>
-      <c r="G235" s="2">
-        <v>8.9999999999999998E-4</v>
-      </c>
+        <v>45399</v>
+      </c>
+      <c r="B235" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
-        <v>45377</v>
+        <v>45399</v>
       </c>
       <c r="B236">
-        <v>21.62</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="C236">
-        <v>21.77</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="D236">
-        <v>21.77</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="E236">
-        <v>21.56</v>
+        <v>19.77</v>
       </c>
       <c r="F236" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="G236" s="2">
-        <v>-1.4E-3</v>
+        <v>-3.9100000000000003E-2</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
-        <v>45376</v>
+        <v>45398</v>
       </c>
       <c r="B237">
-        <v>21.65</v>
+        <v>20.73</v>
       </c>
       <c r="C237">
-        <v>21.48</v>
+        <v>20.8</v>
       </c>
       <c r="D237">
-        <v>21.66</v>
+        <v>20.86</v>
       </c>
       <c r="E237">
-        <v>21.47</v>
+        <v>20.56</v>
       </c>
       <c r="F237" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="G237" s="2">
-        <v>1.03E-2</v>
+        <v>-3.8E-3</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
-        <v>45373</v>
+        <v>45397</v>
       </c>
       <c r="B238">
-        <v>21.43</v>
+        <v>20.81</v>
       </c>
       <c r="C238">
         <v>21.46</v>
       </c>
       <c r="D238">
-        <v>21.5</v>
+        <v>21.46</v>
       </c>
       <c r="E238">
-        <v>21.31</v>
+        <v>20.75</v>
       </c>
       <c r="F238" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G238" s="2">
-        <v>-5.0000000000000001E-4</v>
+        <v>-2.2100000000000002E-2</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
-        <v>45372</v>
+        <v>45394</v>
       </c>
       <c r="B239">
-        <v>21.44</v>
+        <v>21.28</v>
       </c>
       <c r="C239">
-        <v>21.5</v>
+        <v>21.68</v>
       </c>
       <c r="D239">
-        <v>21.54</v>
+        <v>21.68</v>
       </c>
       <c r="E239">
-        <v>21.42</v>
+        <v>21.21</v>
       </c>
       <c r="F239" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="G239" s="2">
-        <v>6.1000000000000004E-3</v>
+        <v>-1.8499999999999999E-2</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
-        <v>45371</v>
+        <v>45393</v>
       </c>
       <c r="B240">
-        <v>21.31</v>
+        <v>21.68</v>
       </c>
       <c r="C240">
-        <v>21.11</v>
+        <v>21.47</v>
       </c>
       <c r="D240">
-        <v>21.33</v>
+        <v>21.7</v>
       </c>
       <c r="E240">
-        <v>20.99</v>
+        <v>21.34</v>
       </c>
       <c r="F240" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="G240" s="2">
-        <v>9.4999999999999998E-3</v>
+        <v>1.17E-2</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
-        <v>45370</v>
+        <v>45392</v>
       </c>
       <c r="B241">
-        <v>21.11</v>
+        <v>21.43</v>
       </c>
       <c r="C241">
-        <v>20.96</v>
+        <v>21.57</v>
       </c>
       <c r="D241">
-        <v>21.12</v>
+        <v>21.57</v>
       </c>
       <c r="E241">
-        <v>20.75</v>
+        <v>21.25</v>
       </c>
       <c r="F241" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="G241" s="2">
-        <v>-2.3999999999999998E-3</v>
+        <v>-4.1999999999999997E-3</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
-        <v>45369</v>
+        <v>45391</v>
       </c>
       <c r="B242">
-        <v>21.16</v>
+        <v>21.52</v>
       </c>
       <c r="C242">
-        <v>21.12</v>
+        <v>21.52</v>
       </c>
       <c r="D242">
-        <v>21.17</v>
+        <v>21.62</v>
       </c>
       <c r="E242">
-        <v>21</v>
+        <v>21.35</v>
       </c>
       <c r="F242" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="G242" s="2">
-        <v>1.0500000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
-        <v>45366</v>
+        <v>45390</v>
       </c>
       <c r="B243">
-        <v>20.94</v>
+        <v>21.49</v>
       </c>
       <c r="C243">
-        <v>20.7</v>
+        <v>21.36</v>
       </c>
       <c r="D243">
-        <v>20.98</v>
+        <v>21.58</v>
       </c>
       <c r="E243">
-        <v>20.7</v>
+        <v>21.34</v>
       </c>
       <c r="F243" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="G243" s="2">
-        <v>1.9E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
-        <v>45365</v>
-      </c>
-      <c r="B244" s="3">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
+        <v>45387</v>
+      </c>
+      <c r="B244">
+        <v>21.34</v>
+      </c>
+      <c r="C244">
+        <v>21.18</v>
+      </c>
+      <c r="D244">
+        <v>21.39</v>
+      </c>
+      <c r="E244">
+        <v>21.12</v>
+      </c>
+      <c r="F244" t="s">
+        <v>204</v>
+      </c>
+      <c r="G244" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
-        <v>45365</v>
+        <v>45386</v>
       </c>
       <c r="B245">
-        <v>20.9</v>
+        <v>21.17</v>
       </c>
       <c r="C245">
-        <v>21.26</v>
+        <v>21.5</v>
       </c>
       <c r="D245">
-        <v>21.26</v>
+        <v>21.66</v>
       </c>
       <c r="E245">
-        <v>20.72</v>
+        <v>21.15</v>
       </c>
       <c r="F245" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G245" s="2">
-        <v>-4.1700000000000001E-2</v>
+        <v>-1.4E-2</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
-        <v>45364</v>
+        <v>45385</v>
       </c>
       <c r="B246">
-        <v>21.81</v>
+        <v>21.47</v>
       </c>
       <c r="C246">
-        <v>21.8</v>
+        <v>21.43</v>
       </c>
       <c r="D246">
-        <v>21.91</v>
+        <v>21.54</v>
       </c>
       <c r="E246">
-        <v>21.75</v>
+        <v>21.3</v>
       </c>
       <c r="F246" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G246" s="2">
-        <v>-2.7000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
-        <v>45363</v>
+        <v>45384</v>
       </c>
       <c r="B247">
-        <v>21.87</v>
+        <v>21.41</v>
       </c>
       <c r="C247">
-        <v>21.88</v>
+        <v>21.38</v>
       </c>
       <c r="D247">
-        <v>21.88</v>
+        <v>21.43</v>
       </c>
       <c r="E247">
-        <v>21.47</v>
+        <v>21.09</v>
       </c>
       <c r="F247" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="G247" s="2">
-        <v>1.2500000000000001E-2</v>
+        <v>-8.8000000000000005E-3</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
-        <v>45362</v>
+        <v>45383</v>
       </c>
       <c r="B248">
         <v>21.6</v>
       </c>
       <c r="C248">
-        <v>21.69</v>
+        <v>21.75</v>
       </c>
       <c r="D248">
-        <v>21.78</v>
+        <v>21.75</v>
       </c>
       <c r="E248">
-        <v>21.57</v>
+        <v>21.47</v>
       </c>
       <c r="F248" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G248" s="2">
-        <v>-8.9999999999999998E-4</v>
+        <v>-3.7000000000000002E-3</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
-        <v>45359</v>
+        <v>45379</v>
       </c>
       <c r="B249">
-        <v>21.62</v>
+        <v>21.68</v>
       </c>
       <c r="C249">
+        <v>21.64</v>
+      </c>
+      <c r="D249">
         <v>21.72</v>
       </c>
-      <c r="D249">
-        <v>21.94</v>
-      </c>
       <c r="E249">
-        <v>21.51</v>
+        <v>21.55</v>
       </c>
       <c r="F249" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G249" s="2">
-        <v>-1.4E-3</v>
+        <v>1.8E-3</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
-        <v>45358</v>
+        <v>45378</v>
       </c>
       <c r="B250">
-        <v>21.65</v>
+        <v>21.64</v>
       </c>
       <c r="C250">
-        <v>21.5</v>
+        <v>21.75</v>
       </c>
       <c r="D250">
-        <v>21.65</v>
+        <v>21.75</v>
       </c>
       <c r="E250">
-        <v>21.4</v>
+        <v>21.45</v>
       </c>
       <c r="F250" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="G250" s="2">
-        <v>1.26E-2</v>
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
-        <v>45357</v>
+        <v>45377</v>
       </c>
       <c r="B251">
-        <v>21.38</v>
+        <v>21.62</v>
       </c>
       <c r="C251">
-        <v>21.45</v>
+        <v>21.77</v>
       </c>
       <c r="D251">
-        <v>21.5</v>
+        <v>21.77</v>
       </c>
       <c r="E251">
-        <v>21.25</v>
+        <v>21.56</v>
       </c>
       <c r="F251" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G251" s="2">
-        <v>9.9000000000000008E-3</v>
+        <v>-1.4E-3</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
-        <v>45356</v>
+        <v>45376</v>
       </c>
       <c r="B252">
-        <v>21.17</v>
+        <v>21.65</v>
       </c>
       <c r="C252">
-        <v>21.42</v>
+        <v>21.48</v>
       </c>
       <c r="D252">
-        <v>21.43</v>
+        <v>21.66</v>
       </c>
       <c r="E252">
-        <v>21.04</v>
+        <v>21.47</v>
       </c>
       <c r="F252" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="G252" s="2">
-        <v>-1.9900000000000001E-2</v>
+        <v>1.03E-2</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
-        <v>45355</v>
+        <v>45373</v>
       </c>
       <c r="B253">
-        <v>21.6</v>
+        <v>21.43</v>
       </c>
       <c r="C253">
-        <v>21.79</v>
+        <v>21.46</v>
       </c>
       <c r="D253">
-        <v>21.79</v>
+        <v>21.5</v>
       </c>
       <c r="E253">
-        <v>21.51</v>
+        <v>21.31</v>
       </c>
       <c r="F253" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G253" s="2">
-        <v>-3.2000000000000002E-3</v>
+        <v>-5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
-        <v>45352</v>
+        <v>45372</v>
       </c>
       <c r="B254">
-        <v>21.67</v>
+        <v>21.44</v>
       </c>
       <c r="C254">
-        <v>21.66</v>
+        <v>21.5</v>
       </c>
       <c r="D254">
-        <v>21.67</v>
+        <v>21.54</v>
       </c>
       <c r="E254">
-        <v>21.37</v>
+        <v>21.42</v>
       </c>
       <c r="F254" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G254" s="2">
-        <v>5.5999999999999999E-3</v>
+        <v>6.1000000000000004E-3</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
-        <v>45351</v>
+        <v>45371</v>
       </c>
       <c r="B255">
-        <v>21.55</v>
+        <v>21.31</v>
       </c>
       <c r="C255">
-        <v>21.48</v>
+        <v>21.11</v>
       </c>
       <c r="D255">
-        <v>21.62</v>
+        <v>21.33</v>
       </c>
       <c r="E255">
-        <v>21.35</v>
+        <v>20.99</v>
       </c>
       <c r="F255" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="G255" s="2">
-        <v>1.5599999999999999E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
-        <v>45350</v>
+        <v>45370</v>
       </c>
       <c r="B256">
-        <v>21.22</v>
+        <v>21.11</v>
       </c>
       <c r="C256">
-        <v>21.15</v>
+        <v>20.96</v>
       </c>
       <c r="D256">
-        <v>21.28</v>
+        <v>21.12</v>
       </c>
       <c r="E256">
-        <v>21.09</v>
+        <v>20.75</v>
       </c>
       <c r="F256" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="G256" s="2">
-        <v>1.9E-3</v>
+        <v>-2.3999999999999998E-3</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
-        <v>45349</v>
+        <v>45369</v>
       </c>
       <c r="B257">
-        <v>21.18</v>
+        <v>21.16</v>
       </c>
       <c r="C257">
         <v>21.12</v>
       </c>
       <c r="D257">
-        <v>21.22</v>
+        <v>21.17</v>
       </c>
       <c r="E257">
-        <v>21.04</v>
+        <v>21</v>
       </c>
       <c r="F257" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="G257" s="2">
-        <v>9.4999999999999998E-3</v>
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
-        <v>45348</v>
+        <v>45366</v>
       </c>
       <c r="B258">
+        <v>20.94</v>
+      </c>
+      <c r="C258">
+        <v>20.7</v>
+      </c>
+      <c r="D258">
         <v>20.98</v>
       </c>
-      <c r="C258">
-        <v>20.92</v>
-      </c>
-      <c r="D258">
-        <v>20.99</v>
-      </c>
       <c r="E258">
-        <v>20.85</v>
+        <v>20.7</v>
       </c>
       <c r="F258" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="G258" s="2">
-        <v>3.3E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
-        <v>45345</v>
-      </c>
-      <c r="B259">
-        <v>20.91</v>
-      </c>
-      <c r="C259">
-        <v>20.99</v>
-      </c>
-      <c r="D259">
-        <v>21.05</v>
-      </c>
-      <c r="E259">
-        <v>20.81</v>
-      </c>
-      <c r="F259" t="s">
-        <v>233</v>
-      </c>
-      <c r="G259" s="2">
-        <v>7.7000000000000002E-3</v>
-      </c>
+        <v>45365</v>
+      </c>
+      <c r="B259" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
-        <v>45344</v>
+        <v>45365</v>
       </c>
       <c r="B260">
-        <v>20.75</v>
+        <v>20.9</v>
       </c>
       <c r="C260">
-        <v>20.3</v>
+        <v>21.26</v>
       </c>
       <c r="D260">
-        <v>20.82</v>
+        <v>21.26</v>
       </c>
       <c r="E260">
-        <v>20.3</v>
+        <v>20.72</v>
       </c>
       <c r="F260" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="G260" s="2">
-        <v>3.39E-2</v>
+        <v>-4.1700000000000001E-2</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
-        <v>45343</v>
+        <v>45364</v>
       </c>
       <c r="B261">
-        <v>20.07</v>
+        <v>21.81</v>
       </c>
       <c r="C261">
-        <v>20.05</v>
+        <v>21.8</v>
       </c>
       <c r="D261">
-        <v>20.13</v>
+        <v>21.91</v>
       </c>
       <c r="E261">
-        <v>19.920000000000002</v>
+        <v>21.75</v>
       </c>
       <c r="F261" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="G261" s="2">
-        <v>-6.4000000000000003E-3</v>
+        <v>-2.7000000000000001E-3</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
-        <v>45342</v>
+        <v>45363</v>
       </c>
       <c r="B262">
-        <v>20.2</v>
+        <v>21.87</v>
       </c>
       <c r="C262">
-        <v>20.59</v>
+        <v>21.88</v>
       </c>
       <c r="D262">
-        <v>20.59</v>
+        <v>21.88</v>
       </c>
       <c r="E262">
-        <v>20.010000000000002</v>
+        <v>21.47</v>
       </c>
       <c r="F262" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G262" s="2">
-        <v>-1.89E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
-        <v>45338</v>
+        <v>45362</v>
       </c>
       <c r="B263">
-        <v>20.59</v>
+        <v>21.6</v>
       </c>
       <c r="C263">
-        <v>20.66</v>
+        <v>21.69</v>
       </c>
       <c r="D263">
-        <v>20.7</v>
+        <v>21.78</v>
       </c>
       <c r="E263">
-        <v>20.53</v>
+        <v>21.57</v>
       </c>
       <c r="F263" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="G263" s="2">
-        <v>-4.7999999999999996E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
-        <v>45337</v>
-      </c>
-      <c r="B264" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
+        <v>45359</v>
+      </c>
+      <c r="B264">
+        <v>21.62</v>
+      </c>
+      <c r="C264">
+        <v>21.72</v>
+      </c>
+      <c r="D264">
+        <v>21.94</v>
+      </c>
+      <c r="E264">
+        <v>21.51</v>
+      </c>
+      <c r="F264" t="s">
+        <v>223</v>
+      </c>
+      <c r="G264" s="2">
+        <v>-1.4E-3</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
-        <v>45337</v>
+        <v>45358</v>
       </c>
       <c r="B265">
-        <v>20.69</v>
+        <v>21.65</v>
       </c>
       <c r="C265">
-        <v>20.55</v>
+        <v>21.5</v>
       </c>
       <c r="D265">
-        <v>20.69</v>
+        <v>21.65</v>
       </c>
       <c r="E265">
-        <v>20.5</v>
+        <v>21.4</v>
       </c>
       <c r="F265" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="G265" s="2">
-        <v>-1.52E-2</v>
+        <v>1.26E-2</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
-        <v>45336</v>
+        <v>45357</v>
       </c>
       <c r="B266">
-        <v>21.01</v>
+        <v>21.38</v>
       </c>
       <c r="C266">
-        <v>20.8</v>
+        <v>21.45</v>
       </c>
       <c r="D266">
-        <v>21.01</v>
+        <v>21.5</v>
       </c>
       <c r="E266">
-        <v>20.75</v>
+        <v>21.25</v>
       </c>
       <c r="F266" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G266" s="2">
-        <v>2.1399999999999999E-2</v>
+        <v>9.9000000000000008E-3</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
-        <v>45335</v>
+        <v>45356</v>
       </c>
       <c r="B267">
-        <v>20.57</v>
+        <v>21.17</v>
       </c>
       <c r="C267">
-        <v>20.56</v>
+        <v>21.42</v>
       </c>
       <c r="D267">
-        <v>20.72</v>
+        <v>21.43</v>
       </c>
       <c r="E267">
-        <v>20.440000000000001</v>
+        <v>21.04</v>
       </c>
       <c r="F267" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="G267" s="2">
-        <v>-1.72E-2</v>
+        <v>-1.9900000000000001E-2</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
-        <v>45334</v>
+        <v>45355</v>
       </c>
       <c r="B268">
-        <v>20.93</v>
+        <v>21.6</v>
       </c>
       <c r="C268">
-        <v>20.84</v>
+        <v>21.79</v>
       </c>
       <c r="D268">
-        <v>21.04</v>
+        <v>21.79</v>
       </c>
       <c r="E268">
-        <v>20.8</v>
+        <v>21.51</v>
       </c>
       <c r="F268" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="G268" s="2">
-        <v>7.1999999999999998E-3</v>
+        <v>-3.2000000000000002E-3</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
-        <v>45331</v>
+        <v>45352</v>
       </c>
       <c r="B269">
-        <v>20.78</v>
+        <v>21.67</v>
       </c>
       <c r="C269">
-        <v>20.88</v>
+        <v>21.66</v>
       </c>
       <c r="D269">
-        <v>20.88</v>
+        <v>21.67</v>
       </c>
       <c r="E269">
-        <v>20.74</v>
+        <v>21.37</v>
       </c>
       <c r="F269" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="G269" s="2">
-        <v>-1E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
-        <v>45330</v>
+        <v>45351</v>
       </c>
       <c r="B270">
-        <v>20.8</v>
+        <v>21.55</v>
       </c>
       <c r="C270">
-        <v>20.75</v>
+        <v>21.48</v>
       </c>
       <c r="D270">
-        <v>20.86</v>
+        <v>21.62</v>
       </c>
       <c r="E270">
-        <v>20.7</v>
+        <v>21.35</v>
       </c>
       <c r="F270" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G270" s="2">
-        <v>1E-3</v>
+        <v>1.5599999999999999E-2</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
-        <v>45329</v>
+        <v>45350</v>
       </c>
       <c r="B271">
-        <v>20.78</v>
+        <v>21.22</v>
       </c>
       <c r="C271">
-        <v>20.71</v>
+        <v>21.15</v>
       </c>
       <c r="D271">
-        <v>20.8</v>
+        <v>21.28</v>
       </c>
       <c r="E271">
-        <v>20.55</v>
+        <v>21.09</v>
       </c>
       <c r="F271" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="G271" s="2">
-        <v>8.2000000000000007E-3</v>
+        <v>1.9E-3</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
-        <v>45328</v>
+        <v>45349</v>
       </c>
       <c r="B272">
-        <v>20.61</v>
+        <v>21.18</v>
       </c>
       <c r="C272">
-        <v>20.45</v>
+        <v>21.12</v>
       </c>
       <c r="D272">
-        <v>20.61</v>
+        <v>21.22</v>
       </c>
       <c r="E272">
-        <v>20.41</v>
+        <v>21.04</v>
       </c>
       <c r="F272" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="G272" s="2">
-        <v>8.3000000000000001E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
-        <v>45327</v>
+        <v>45348</v>
       </c>
       <c r="B273">
-        <v>20.440000000000001</v>
+        <v>20.98</v>
       </c>
       <c r="C273">
-        <v>20.7</v>
+        <v>20.92</v>
       </c>
       <c r="D273">
-        <v>20.7</v>
+        <v>20.99</v>
       </c>
       <c r="E273">
-        <v>20.239999999999998</v>
+        <v>20.85</v>
       </c>
       <c r="F273" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="G273" s="2">
-        <v>-1.26E-2</v>
+        <v>3.3E-3</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
-        <v>45324</v>
+        <v>45345</v>
       </c>
       <c r="B274">
-        <v>20.7</v>
+        <v>20.91</v>
       </c>
       <c r="C274">
-        <v>20.59</v>
+        <v>20.99</v>
       </c>
       <c r="D274">
-        <v>20.7</v>
+        <v>21.05</v>
       </c>
       <c r="E274">
-        <v>20.420000000000002</v>
+        <v>20.81</v>
       </c>
       <c r="F274" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G274" s="2">
-        <v>1.52E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
-        <v>45323</v>
+        <v>45344</v>
       </c>
       <c r="B275">
-        <v>20.39</v>
+        <v>20.75</v>
       </c>
       <c r="C275">
-        <v>20.37</v>
+        <v>20.3</v>
       </c>
       <c r="D275">
-        <v>20.39</v>
+        <v>20.82</v>
       </c>
       <c r="E275">
-        <v>20.12</v>
+        <v>20.3</v>
       </c>
       <c r="F275" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="G275" s="2">
-        <v>9.4000000000000004E-3</v>
+        <v>3.39E-2</v>
       </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
-        <v>45322</v>
+        <v>45343</v>
       </c>
       <c r="B276">
-        <v>20.2</v>
+        <v>20.07</v>
       </c>
       <c r="C276">
-        <v>20.399999999999999</v>
+        <v>20.05</v>
       </c>
       <c r="D276">
-        <v>20.49</v>
+        <v>20.13</v>
       </c>
       <c r="E276">
-        <v>20.170000000000002</v>
+        <v>19.920000000000002</v>
       </c>
       <c r="F276" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G276" s="2">
-        <v>-1.46E-2</v>
+        <v>-6.4000000000000003E-3</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
-        <v>45321</v>
+        <v>45342</v>
       </c>
       <c r="B277">
-        <v>20.5</v>
+        <v>20.2</v>
       </c>
       <c r="C277">
-        <v>20.68</v>
+        <v>20.59</v>
       </c>
       <c r="D277">
-        <v>20.68</v>
+        <v>20.59</v>
       </c>
       <c r="E277">
-        <v>20.43</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="F277" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G277" s="2">
-        <v>-7.7000000000000002E-3</v>
+        <v>-1.89E-2</v>
       </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
-        <v>45320</v>
+        <v>45338</v>
       </c>
       <c r="B278">
+        <v>20.59</v>
+      </c>
+      <c r="C278">
         <v>20.66</v>
       </c>
-      <c r="C278">
-        <v>20.43</v>
-      </c>
       <c r="D278">
-        <v>20.66</v>
+        <v>20.7</v>
       </c>
       <c r="E278">
-        <v>20.350000000000001</v>
+        <v>20.53</v>
       </c>
       <c r="F278" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="G278" s="2">
-        <v>1.52E-2</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
-        <v>45317</v>
-      </c>
-      <c r="B279">
-        <v>20.350000000000001</v>
-      </c>
-      <c r="C279">
-        <v>20.27</v>
-      </c>
-      <c r="D279">
-        <v>20.39</v>
-      </c>
-      <c r="E279">
-        <v>20.21</v>
-      </c>
-      <c r="F279" t="s">
-        <v>252</v>
-      </c>
-      <c r="G279" s="2">
-        <v>3.8999999999999998E-3</v>
-      </c>
+        <v>45337</v>
+      </c>
+      <c r="B279" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="C279" s="3"/>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3"/>
+      <c r="F279" s="3"/>
+      <c r="G279" s="3"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
-        <v>45316</v>
+        <v>45337</v>
       </c>
       <c r="B280">
-        <v>20.27</v>
+        <v>20.69</v>
       </c>
       <c r="C280">
-        <v>20.37</v>
+        <v>20.55</v>
       </c>
       <c r="D280">
-        <v>20.38</v>
+        <v>20.69</v>
       </c>
       <c r="E280">
-        <v>20.149999999999999</v>
+        <v>20.5</v>
       </c>
       <c r="F280" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G280" s="2">
-        <v>-4.4000000000000003E-3</v>
+        <v>-1.52E-2</v>
       </c>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
-        <v>45315</v>
+        <v>45336</v>
       </c>
       <c r="B281">
-        <v>20.36</v>
+        <v>21.01</v>
       </c>
       <c r="C281">
-        <v>20.51</v>
+        <v>20.8</v>
       </c>
       <c r="D281">
-        <v>20.53</v>
+        <v>21.01</v>
       </c>
       <c r="E281">
-        <v>20.350000000000001</v>
+        <v>20.75</v>
       </c>
       <c r="F281" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="G281" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
-        <v>45314</v>
+        <v>45335</v>
       </c>
       <c r="B282">
-        <v>20.27</v>
+        <v>20.57</v>
       </c>
       <c r="C282">
-        <v>20.21</v>
+        <v>20.56</v>
       </c>
       <c r="D282">
-        <v>20.28</v>
+        <v>20.72</v>
       </c>
       <c r="E282">
-        <v>20.170000000000002</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="F282" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G282" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>-1.72E-2</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
-        <v>45313</v>
+        <v>45334</v>
       </c>
       <c r="B283">
-        <v>20.18</v>
+        <v>20.93</v>
       </c>
       <c r="C283">
-        <v>20.13</v>
+        <v>20.84</v>
       </c>
       <c r="D283">
-        <v>20.309999999999999</v>
+        <v>21.04</v>
       </c>
       <c r="E283">
-        <v>20.11</v>
+        <v>20.8</v>
       </c>
       <c r="F283" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G283" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
-        <v>45310</v>
+        <v>45331</v>
       </c>
       <c r="B284">
-        <v>20.12</v>
+        <v>20.78</v>
       </c>
       <c r="C284">
-        <v>20.03</v>
+        <v>20.88</v>
       </c>
       <c r="D284">
-        <v>20.12</v>
+        <v>20.88</v>
       </c>
       <c r="E284">
-        <v>19.88</v>
+        <v>20.74</v>
       </c>
       <c r="F284" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G284" s="2">
-        <v>0.01</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
+        <v>45330</v>
+      </c>
+      <c r="B285">
+        <v>20.8</v>
+      </c>
+      <c r="C285">
+        <v>20.75</v>
+      </c>
+      <c r="D285">
+        <v>20.86</v>
+      </c>
+      <c r="E285">
+        <v>20.7</v>
+      </c>
+      <c r="F285" t="s">
+        <v>243</v>
+      </c>
+      <c r="G285" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" s="1">
+        <v>45329</v>
+      </c>
+      <c r="B286">
+        <v>20.78</v>
+      </c>
+      <c r="C286">
+        <v>20.71</v>
+      </c>
+      <c r="D286">
+        <v>20.8</v>
+      </c>
+      <c r="E286">
+        <v>20.55</v>
+      </c>
+      <c r="F286" t="s">
+        <v>244</v>
+      </c>
+      <c r="G286" s="2">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" s="1">
+        <v>45328</v>
+      </c>
+      <c r="B287">
+        <v>20.61</v>
+      </c>
+      <c r="C287">
+        <v>20.45</v>
+      </c>
+      <c r="D287">
+        <v>20.61</v>
+      </c>
+      <c r="E287">
+        <v>20.41</v>
+      </c>
+      <c r="F287" t="s">
+        <v>245</v>
+      </c>
+      <c r="G287" s="2">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" s="1">
+        <v>45327</v>
+      </c>
+      <c r="B288">
+        <v>20.440000000000001</v>
+      </c>
+      <c r="C288">
+        <v>20.7</v>
+      </c>
+      <c r="D288">
+        <v>20.7</v>
+      </c>
+      <c r="E288">
+        <v>20.239999999999998</v>
+      </c>
+      <c r="F288" t="s">
+        <v>246</v>
+      </c>
+      <c r="G288" s="2">
+        <v>-1.26E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" s="1">
+        <v>45324</v>
+      </c>
+      <c r="B289">
+        <v>20.7</v>
+      </c>
+      <c r="C289">
+        <v>20.59</v>
+      </c>
+      <c r="D289">
+        <v>20.7</v>
+      </c>
+      <c r="E289">
+        <v>20.420000000000002</v>
+      </c>
+      <c r="F289" t="s">
+        <v>247</v>
+      </c>
+      <c r="G289" s="2">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" s="1">
+        <v>45323</v>
+      </c>
+      <c r="B290">
+        <v>20.39</v>
+      </c>
+      <c r="C290">
+        <v>20.37</v>
+      </c>
+      <c r="D290">
+        <v>20.39</v>
+      </c>
+      <c r="E290">
+        <v>20.12</v>
+      </c>
+      <c r="F290" t="s">
+        <v>248</v>
+      </c>
+      <c r="G290" s="2">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" s="1">
+        <v>45322</v>
+      </c>
+      <c r="B291">
+        <v>20.2</v>
+      </c>
+      <c r="C291">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D291">
+        <v>20.49</v>
+      </c>
+      <c r="E291">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F291" t="s">
+        <v>249</v>
+      </c>
+      <c r="G291" s="2">
+        <v>-1.46E-2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" s="1">
+        <v>45321</v>
+      </c>
+      <c r="B292">
+        <v>20.5</v>
+      </c>
+      <c r="C292">
+        <v>20.68</v>
+      </c>
+      <c r="D292">
+        <v>20.68</v>
+      </c>
+      <c r="E292">
+        <v>20.43</v>
+      </c>
+      <c r="F292" t="s">
+        <v>250</v>
+      </c>
+      <c r="G292" s="2">
+        <v>-7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" s="1">
+        <v>45320</v>
+      </c>
+      <c r="B293">
+        <v>20.66</v>
+      </c>
+      <c r="C293">
+        <v>20.43</v>
+      </c>
+      <c r="D293">
+        <v>20.66</v>
+      </c>
+      <c r="E293">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="F293" t="s">
+        <v>251</v>
+      </c>
+      <c r="G293" s="2">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" s="1">
+        <v>45317</v>
+      </c>
+      <c r="B294">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="C294">
+        <v>20.27</v>
+      </c>
+      <c r="D294">
+        <v>20.39</v>
+      </c>
+      <c r="E294">
+        <v>20.21</v>
+      </c>
+      <c r="F294" t="s">
+        <v>252</v>
+      </c>
+      <c r="G294" s="2">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" s="1">
+        <v>45316</v>
+      </c>
+      <c r="B295">
+        <v>20.27</v>
+      </c>
+      <c r="C295">
+        <v>20.37</v>
+      </c>
+      <c r="D295">
+        <v>20.38</v>
+      </c>
+      <c r="E295">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F295" t="s">
+        <v>253</v>
+      </c>
+      <c r="G295" s="2">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B296">
+        <v>20.36</v>
+      </c>
+      <c r="C296">
+        <v>20.51</v>
+      </c>
+      <c r="D296">
+        <v>20.53</v>
+      </c>
+      <c r="E296">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="F296" t="s">
+        <v>254</v>
+      </c>
+      <c r="G296" s="2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" s="1">
+        <v>45314</v>
+      </c>
+      <c r="B297">
+        <v>20.27</v>
+      </c>
+      <c r="C297">
+        <v>20.21</v>
+      </c>
+      <c r="D297">
+        <v>20.28</v>
+      </c>
+      <c r="E297">
+        <v>20.170000000000002</v>
+      </c>
+      <c r="F297" t="s">
+        <v>255</v>
+      </c>
+      <c r="G297" s="2">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" s="1">
+        <v>45313</v>
+      </c>
+      <c r="B298">
+        <v>20.18</v>
+      </c>
+      <c r="C298">
+        <v>20.13</v>
+      </c>
+      <c r="D298">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="E298">
+        <v>20.11</v>
+      </c>
+      <c r="F298" t="s">
+        <v>256</v>
+      </c>
+      <c r="G298" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" s="1">
+        <v>45310</v>
+      </c>
+      <c r="B299">
+        <v>20.12</v>
+      </c>
+      <c r="C299">
+        <v>20.03</v>
+      </c>
+      <c r="D299">
+        <v>20.12</v>
+      </c>
+      <c r="E299">
+        <v>19.88</v>
+      </c>
+      <c r="F299" t="s">
+        <v>257</v>
+      </c>
+      <c r="G299" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" s="1">
         <v>45309</v>
       </c>
-      <c r="B285">
+      <c r="B300">
         <v>19.920000000000002</v>
       </c>
-      <c r="C285">
+      <c r="C300">
         <v>21</v>
       </c>
-      <c r="D285">
+      <c r="D300">
         <v>21.35</v>
       </c>
-      <c r="E285">
+      <c r="E300">
         <v>19.82</v>
       </c>
-      <c r="F285" t="s">
+      <c r="F300" t="s">
         <v>258</v>
       </c>
-      <c r="G285" s="2">
+      <c r="G300" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B244:G244"/>
-    <mergeCell ref="B264:G264"/>
-    <mergeCell ref="B108:G108"/>
-    <mergeCell ref="B133:G133"/>
-    <mergeCell ref="B155:G155"/>
-    <mergeCell ref="B177:G177"/>
-    <mergeCell ref="B199:G199"/>
-    <mergeCell ref="B220:G220"/>
-    <mergeCell ref="B72:G72"/>
-    <mergeCell ref="B78:G78"/>
-    <mergeCell ref="B84:G84"/>
-    <mergeCell ref="B90:G90"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="B102:G102"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="B54:G54"/>
-    <mergeCell ref="B60:G60"/>
-    <mergeCell ref="B66:G66"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B16:G16"/>
+  <mergeCells count="5">
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B40:G40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>